--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry of Education</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1109,42 +1106,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
@@ -1160,11 +1157,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -730,7 +730,7 @@
     <t>This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -712,13 +712,16 @@
     <t>Name: uganda-donor-educ-spend</t>
   </si>
   <si>
-    <t>Description: Donor development spend per child in government primary education on district government budgets</t>
+    <t>Description: Primary Education Donor Spending Per Child</t>
   </si>
   <si>
     <t>Units of measure: USD</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry of Education</t>
+    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.budget.go.ug/</t>
   </si>
   <si>
     <t/>
@@ -736,7 +739,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1106,42 +1112,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
@@ -1157,6 +1163,16 @@
     <row r="17">
       <c r="A17" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -712,13 +712,13 @@
     <t>Name: uganda-donor-educ-spend</t>
   </si>
   <si>
-    <t>Description: Primary Education Donor Spending Per Child</t>
+    <t>Description: Primary education donor spending per child</t>
   </si>
   <si>
     <t>Units of measure: USD</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -1217,7 +1217,7 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>3.68885629407501</v>
+        <v>3.6888562941</v>
       </c>
       <c r="E2" t="n">
         <v>12477.49049</v>
@@ -1268,7 +1268,7 @@
         <v>2016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.750270601736362</v>
+        <v>0.7502706017</v>
       </c>
       <c r="E5" t="n">
         <v>2774.540813</v>
@@ -1302,7 +1302,7 @@
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0952466374229282</v>
+        <v>0.0952466374</v>
       </c>
       <c r="E7" t="n">
         <v>352.2271594</v>
@@ -1455,7 +1455,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>10.6500135342897</v>
+        <v>10.6500135343</v>
       </c>
       <c r="E16" t="n">
         <v>36023.48045</v>
@@ -1489,7 +1489,7 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.173232154467467</v>
+        <v>0.1732321545</v>
       </c>
       <c r="E18" t="n">
         <v>585.9546666</v>
@@ -1506,7 +1506,7 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>0.158449484051692</v>
+        <v>0.1584494841</v>
       </c>
       <c r="E19" t="n">
         <v>585.9546666</v>
@@ -1574,7 +1574,7 @@
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>0.168145038524112</v>
+        <v>0.1681450385</v>
       </c>
       <c r="E23" t="n">
         <v>621.8093456</v>
@@ -1859,7 +1859,7 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>1.07872868183263</v>
+        <v>1.0787286818</v>
       </c>
       <c r="E40" t="n">
         <v>3648.780488</v>
@@ -1893,7 +1893,7 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.721807662868089</v>
+        <v>0.7218076629</v>
       </c>
       <c r="E42" t="n">
         <v>2441.50152</v>
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>0.335235837238973</v>
+        <v>0.3352358372</v>
       </c>
       <c r="E43" t="n">
         <v>1239.720056</v>
@@ -2199,7 +2199,7 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>8.26342320125051</v>
+        <v>8.2634232013</v>
       </c>
       <c r="E60" t="n">
         <v>27950.8813</v>
@@ -2216,7 +2216,7 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>2.46352925651602</v>
+        <v>2.4635292565</v>
       </c>
       <c r="E61" t="n">
         <v>9110.262951</v>
@@ -2471,7 +2471,7 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>0.858302329339347</v>
+        <v>0.8583023293</v>
       </c>
       <c r="E76" t="n">
         <v>2903.19229</v>
@@ -2539,7 +2539,7 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>15.7418685936068</v>
+        <v>15.7418685936</v>
       </c>
       <c r="E80" t="n">
         <v>53246.58919</v>
@@ -2556,7 +2556,7 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>10.9808803310213</v>
+        <v>10.980880331</v>
       </c>
       <c r="E81" t="n">
         <v>40607.88277</v>
@@ -2624,7 +2624,7 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>0.116600405055806</v>
+        <v>0.1166004051</v>
       </c>
       <c r="E85" t="n">
         <v>431.1945342</v>
@@ -2820,7 +2820,7 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0391382013565366</v>
+        <v>0.0391382014</v>
       </c>
       <c r="E97" t="n">
         <v>144.7351619</v>
@@ -3075,7 +3075,7 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0374877426031678</v>
+        <v>0.0374877426</v>
       </c>
       <c r="E112" t="n">
         <v>126.8016194</v>
@@ -3092,7 +3092,7 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>0.034288746751401</v>
+        <v>0.0342887468</v>
       </c>
       <c r="E113" t="n">
         <v>126.8016194</v>
@@ -3160,7 +3160,7 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>1.01087457408651</v>
+        <v>1.0108745741</v>
       </c>
       <c r="E117" t="n">
         <v>3738.268241</v>
@@ -3211,7 +3211,7 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>2.10878190176003</v>
+        <v>2.1087819018</v>
       </c>
       <c r="E120" t="n">
         <v>7132.917096</v>
@@ -3228,7 +3228,7 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>3.51035009762124</v>
+        <v>3.5103500976</v>
       </c>
       <c r="E121" t="n">
         <v>12981.46241</v>
@@ -3364,7 +3364,7 @@
         <v>2016</v>
       </c>
       <c r="D129" t="n">
-        <v>1.48468604582094</v>
+        <v>1.4846860458</v>
       </c>
       <c r="E129" t="n">
         <v>5490.448405</v>
@@ -3381,7 +3381,7 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>0.595148721090793</v>
+        <v>0.5951487211</v>
       </c>
       <c r="E130" t="n">
         <v>2013.079913</v>
@@ -3398,7 +3398,7 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>0.544362033022973</v>
+        <v>0.544362033</v>
       </c>
       <c r="E131" t="n">
         <v>2013.079913</v>
@@ -3415,7 +3415,7 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>10.9490265287479</v>
+        <v>10.9490265287</v>
       </c>
       <c r="E132" t="n">
         <v>37034.88656</v>
@@ -3449,7 +3449,7 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>0.530554069681689</v>
+        <v>0.5305540697</v>
       </c>
       <c r="E134" t="n">
         <v>1794.589659</v>
@@ -3466,7 +3466,7 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>0.485279530587241</v>
+        <v>0.4852795306</v>
       </c>
       <c r="E135" t="n">
         <v>1794.589659</v>
@@ -3662,7 +3662,7 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00749968883006575</v>
+        <v>0.0074996888</v>
       </c>
       <c r="E147" t="n">
         <v>27.73425041</v>
@@ -3696,7 +3696,7 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>0.252457588089608</v>
+        <v>0.2524575881</v>
       </c>
       <c r="E149" t="n">
         <v>933.6016633</v>
@@ -3781,7 +3781,7 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>0.000534569306269289</v>
+        <v>0.0005345693</v>
       </c>
       <c r="E154" t="n">
         <v>1.808171125</v>
@@ -3798,7 +3798,7 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>0.000488952129173839</v>
+        <v>0.0004889521</v>
       </c>
       <c r="E155" t="n">
         <v>1.808171125</v>
@@ -4229,7 +4229,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>0.820176668923783</v>
+        <v>0.8201766689</v>
       </c>
       <c r="E182" t="n">
         <v>2774.232925</v>
@@ -4399,7 +4399,7 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>15.0151000412612</v>
+        <v>15.0151000413</v>
       </c>
       <c r="E192" t="n">
         <v>50788.30755</v>
@@ -4433,7 +4433,7 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>0.103248195175434</v>
+        <v>0.1032481952</v>
       </c>
       <c r="E194" t="n">
         <v>349.235175</v>
@@ -4450,7 +4450,7 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>0.094437567350628</v>
+        <v>0.0944375674</v>
       </c>
       <c r="E195" t="n">
         <v>349.235175</v>
@@ -4467,7 +4467,7 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>2.95938969347587</v>
+        <v>2.9593896935</v>
       </c>
       <c r="E196" t="n">
         <v>10010.08275</v>
@@ -4603,7 +4603,7 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0592143945126478</v>
+        <v>0.0592143945</v>
       </c>
       <c r="E204" t="n">
         <v>200.2916312</v>
@@ -4620,7 +4620,7 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>0.255455604680429</v>
+        <v>0.2554556047</v>
       </c>
       <c r="E205" t="n">
         <v>944.688489</v>
@@ -4705,7 +4705,7 @@
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>0.217515521445132</v>
+        <v>0.2175155214</v>
       </c>
       <c r="E210" t="n">
         <v>735.742364</v>
@@ -4722,7 +4722,7 @@
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>0.198953954317346</v>
+        <v>0.1989539543</v>
       </c>
       <c r="E211" t="n">
         <v>735.742364</v>
@@ -5002,7 +5002,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3.68885629407501</v>
+        <v>3.6888562941</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.750270601736362</v>
+        <v>0.7502706017</v>
       </c>
     </row>
     <row r="4">
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0952466374229282</v>
+        <v>0.0952466374</v>
       </c>
     </row>
     <row r="5">
@@ -5100,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6500135342897</v>
+        <v>10.6500135343</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5114,10 +5114,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173232154467467</v>
+        <v>0.1732321545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.158449484051692</v>
+        <v>0.1584494841</v>
       </c>
     </row>
     <row r="11">
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168145038524112</v>
+        <v>0.1681450385</v>
       </c>
     </row>
     <row r="13">
@@ -5266,7 +5266,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>1.07872868183263</v>
+        <v>1.0787286818</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5280,10 +5280,10 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>0.721807662868089</v>
+        <v>0.7218076629</v>
       </c>
       <c r="D22" t="n">
-        <v>0.335235837238973</v>
+        <v>0.3352358372</v>
       </c>
     </row>
     <row r="23">
@@ -5406,10 +5406,10 @@
         <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>8.26342320125051</v>
+        <v>8.2634232013</v>
       </c>
       <c r="D31" t="n">
-        <v>2.46352925651602</v>
+        <v>2.4635292565</v>
       </c>
     </row>
     <row r="32">
@@ -5518,7 +5518,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>0.858302329339347</v>
+        <v>0.8583023293</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -5546,10 +5546,10 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>15.7418685936068</v>
+        <v>15.7418685936</v>
       </c>
       <c r="D41" t="n">
-        <v>10.9808803310213</v>
+        <v>10.980880331</v>
       </c>
     </row>
     <row r="42">
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.116600405055806</v>
+        <v>0.1166004051</v>
       </c>
     </row>
     <row r="44">
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0391382013565366</v>
+        <v>0.0391382014</v>
       </c>
     </row>
     <row r="50">
@@ -5766,10 +5766,10 @@
         <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0374877426031678</v>
+        <v>0.0374877426</v>
       </c>
       <c r="D57" t="n">
-        <v>0.034288746751401</v>
+        <v>0.0342887468</v>
       </c>
     </row>
     <row r="58">
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1.01087457408651</v>
+        <v>1.0108745741</v>
       </c>
     </row>
     <row r="60">
@@ -5822,10 +5822,10 @@
         <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>2.10878190176003</v>
+        <v>2.1087819018</v>
       </c>
       <c r="D61" t="n">
-        <v>3.51035009762124</v>
+        <v>3.5103500976</v>
       </c>
     </row>
     <row r="62">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1.48468604582094</v>
+        <v>1.4846860458</v>
       </c>
     </row>
     <row r="66">
@@ -5892,10 +5892,10 @@
         <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>0.595148721090793</v>
+        <v>0.5951487211</v>
       </c>
       <c r="D66" t="n">
-        <v>0.544362033022973</v>
+        <v>0.544362033</v>
       </c>
     </row>
     <row r="67">
@@ -5906,7 +5906,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>10.9490265287479</v>
+        <v>10.9490265287</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -5920,10 +5920,10 @@
         <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>0.530554069681689</v>
+        <v>0.5305540697</v>
       </c>
       <c r="D68" t="n">
-        <v>0.485279530587241</v>
+        <v>0.4852795306</v>
       </c>
     </row>
     <row r="69">
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00749968883006575</v>
+        <v>0.0074996888</v>
       </c>
     </row>
     <row r="75">
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252457588089608</v>
+        <v>0.2524575881</v>
       </c>
     </row>
     <row r="76">
@@ -6056,10 +6056,10 @@
         <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>0.000534569306269289</v>
+        <v>0.0005345693</v>
       </c>
       <c r="D78" t="n">
-        <v>0.000488952129173839</v>
+        <v>0.0004889521</v>
       </c>
     </row>
     <row r="79">
@@ -6238,7 +6238,7 @@
         <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>0.820176668923783</v>
+        <v>0.8201766689</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>196</v>
       </c>
       <c r="C97" t="n">
-        <v>15.0151000412612</v>
+        <v>15.0151000413</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -6322,10 +6322,10 @@
         <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>0.103248195175434</v>
+        <v>0.1032481952</v>
       </c>
       <c r="D98" t="n">
-        <v>0.094437567350628</v>
+        <v>0.0944375674</v>
       </c>
     </row>
     <row r="99">
@@ -6336,7 +6336,7 @@
         <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>2.95938969347587</v>
+        <v>2.9593896935</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0592143945126478</v>
+        <v>0.0592143945</v>
       </c>
       <c r="D103" t="n">
-        <v>0.255455604680429</v>
+        <v>0.2554556047</v>
       </c>
     </row>
     <row r="104">
@@ -6434,10 +6434,10 @@
         <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217515521445132</v>
+        <v>0.2175155214</v>
       </c>
       <c r="D106" t="n">
-        <v>0.198953954317346</v>
+        <v>0.1989539543</v>
       </c>
     </row>
     <row r="107">

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,337 +34,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1113,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +1206,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
@@ -885,7 +1223,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="n">
         <v>2016</v>
       </c>
@@ -898,9 +1238,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
@@ -909,9 +1251,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="n">
         <v>2016</v>
       </c>
@@ -920,9 +1264,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
@@ -935,9 +1281,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="n">
         <v>2016</v>
       </c>
@@ -950,9 +1298,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8"/>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
@@ -965,9 +1315,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
@@ -980,9 +1332,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10"/>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
@@ -995,9 +1349,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" t="n">
         <v>2016</v>
       </c>
@@ -1010,9 +1366,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12"/>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
@@ -1025,9 +1383,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" t="n">
         <v>2016</v>
       </c>
@@ -1040,9 +1400,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14"/>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
@@ -1051,9 +1413,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="n">
         <v>2016</v>
       </c>
@@ -1062,9 +1426,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16"/>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
@@ -1077,9 +1443,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" t="n">
         <v>2016</v>
       </c>
@@ -1088,9 +1456,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18"/>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
@@ -1103,9 +1473,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
@@ -1118,9 +1490,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20"/>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
@@ -1133,9 +1507,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21"/>
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="n">
         <v>2016</v>
       </c>
@@ -1148,9 +1524,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
@@ -1163,9 +1541,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23"/>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
@@ -1178,9 +1558,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
@@ -1193,9 +1575,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25"/>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" t="n">
         <v>2016</v>
       </c>
@@ -1208,9 +1592,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26"/>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
@@ -1223,9 +1609,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27"/>
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
@@ -1238,9 +1626,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28"/>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
@@ -1253,9 +1643,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29"/>
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" t="n">
         <v>2016</v>
       </c>
@@ -1268,9 +1660,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30"/>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
@@ -1279,9 +1673,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31"/>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" t="n">
         <v>2016</v>
       </c>
@@ -1290,9 +1686,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32"/>
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
@@ -1305,9 +1703,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33"/>
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" t="n">
         <v>2016</v>
       </c>
@@ -1320,9 +1720,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34"/>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
@@ -1335,9 +1737,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35"/>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" t="n">
         <v>2016</v>
       </c>
@@ -1350,9 +1754,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36"/>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
@@ -1365,9 +1771,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37"/>
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" t="n">
         <v>2016</v>
       </c>
@@ -1380,9 +1788,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38"/>
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
@@ -1395,9 +1805,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39"/>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
@@ -1410,9 +1822,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
@@ -1425,9 +1839,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41"/>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" t="n">
         <v>2016</v>
       </c>
@@ -1440,9 +1856,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42"/>
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
@@ -1455,9 +1873,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43"/>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" t="n">
         <v>2016</v>
       </c>
@@ -1470,9 +1890,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44"/>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
@@ -1485,9 +1907,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45"/>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" t="n">
         <v>2016</v>
       </c>
@@ -1500,9 +1924,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46"/>
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
@@ -1515,9 +1941,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47"/>
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" t="n">
         <v>2016</v>
       </c>
@@ -1530,9 +1958,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48"/>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
@@ -1545,9 +1975,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49"/>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" t="n">
         <v>2016</v>
       </c>
@@ -1560,9 +1992,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50"/>
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
@@ -1575,9 +2009,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51"/>
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="n">
         <v>2016</v>
       </c>
@@ -1586,9 +2022,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52"/>
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
@@ -1601,9 +2039,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53"/>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" t="n">
         <v>2016</v>
       </c>
@@ -1616,9 +2056,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54"/>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
@@ -1631,9 +2073,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55"/>
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" t="n">
         <v>2016</v>
       </c>
@@ -1646,9 +2090,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56"/>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
@@ -1661,9 +2107,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57"/>
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
@@ -1676,9 +2124,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58"/>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
@@ -1691,9 +2141,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59"/>
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" t="n">
         <v>2016</v>
       </c>
@@ -1706,9 +2158,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60"/>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
@@ -1721,9 +2175,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61"/>
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" t="n">
         <v>2016</v>
       </c>
@@ -1736,9 +2192,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62"/>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
@@ -1751,9 +2209,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63"/>
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
@@ -1766,9 +2226,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64"/>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
@@ -1781,9 +2243,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65"/>
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
       <c r="C65" t="n">
         <v>2016</v>
       </c>
@@ -1796,9 +2260,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66"/>
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
@@ -1811,9 +2277,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67"/>
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" t="n">
         <v>2016</v>
       </c>
@@ -1826,9 +2294,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68"/>
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
@@ -1841,9 +2311,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69"/>
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
@@ -1856,9 +2328,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70"/>
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
@@ -1871,9 +2345,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71"/>
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
       <c r="C71" t="n">
         <v>2016</v>
       </c>
@@ -1886,9 +2362,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72"/>
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
@@ -1901,9 +2379,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73"/>
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
@@ -1916,9 +2396,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74"/>
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
@@ -1931,9 +2413,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75"/>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
       <c r="C75" t="n">
         <v>2016</v>
       </c>
@@ -1946,9 +2430,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76"/>
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
@@ -1961,9 +2447,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77"/>
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
       <c r="C77" t="n">
         <v>2016</v>
       </c>
@@ -1976,9 +2464,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78"/>
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
@@ -1991,9 +2481,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79"/>
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
       <c r="C79" t="n">
         <v>2016</v>
       </c>
@@ -2006,9 +2498,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80"/>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
@@ -2021,9 +2515,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81"/>
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
       <c r="C81" t="n">
         <v>2016</v>
       </c>
@@ -2036,9 +2532,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82"/>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
@@ -2051,9 +2549,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83"/>
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" t="n">
         <v>2016</v>
       </c>
@@ -2066,9 +2566,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84"/>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
@@ -2081,9 +2583,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85"/>
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
       <c r="C85" t="n">
         <v>2016</v>
       </c>
@@ -2096,9 +2600,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86"/>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
@@ -2111,9 +2617,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87"/>
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
       <c r="C87" t="n">
         <v>2016</v>
       </c>
@@ -2126,9 +2634,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88"/>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
@@ -2141,9 +2651,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89"/>
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" t="n">
         <v>2016</v>
       </c>
@@ -2156,9 +2668,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90"/>
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
@@ -2171,9 +2685,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91"/>
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" t="n">
         <v>2016</v>
       </c>
@@ -2186,9 +2702,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92"/>
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
@@ -2201,9 +2719,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93"/>
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
       <c r="C93" t="n">
         <v>2016</v>
       </c>
@@ -2216,9 +2736,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94"/>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
@@ -2231,9 +2753,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95"/>
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
       <c r="C95" t="n">
         <v>2016</v>
       </c>
@@ -2246,9 +2770,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96"/>
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
@@ -2261,9 +2787,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97"/>
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
       <c r="C97" t="n">
         <v>2016</v>
       </c>
@@ -2276,9 +2804,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98"/>
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
@@ -2291,9 +2821,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99"/>
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
       <c r="C99" t="n">
         <v>2016</v>
       </c>
@@ -2306,9 +2838,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100"/>
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
@@ -2321,9 +2855,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101"/>
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
       <c r="C101" t="n">
         <v>2016</v>
       </c>
@@ -2336,9 +2872,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102"/>
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
@@ -2351,9 +2889,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103"/>
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
       <c r="C103" t="n">
         <v>2016</v>
       </c>
@@ -2366,9 +2906,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104"/>
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
@@ -2381,9 +2923,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105"/>
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
       <c r="C105" t="n">
         <v>2016</v>
       </c>
@@ -2396,9 +2940,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106"/>
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
@@ -2407,9 +2953,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107"/>
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
       <c r="C107" t="n">
         <v>2016</v>
       </c>
@@ -2418,9 +2966,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108"/>
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
@@ -2433,9 +2983,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109"/>
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
       <c r="C109" t="n">
         <v>2016</v>
       </c>
@@ -2448,9 +3000,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110"/>
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
@@ -2463,9 +3017,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111"/>
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
       <c r="C111" t="n">
         <v>2016</v>
       </c>
@@ -2478,9 +3034,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112"/>
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
@@ -2493,9 +3051,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113"/>
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
       <c r="C113" t="n">
         <v>2016</v>
       </c>
@@ -2508,9 +3068,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114"/>
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
       <c r="C114" t="n">
         <v>2015</v>
       </c>
@@ -2523,9 +3085,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115"/>
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
       <c r="C115" t="n">
         <v>2016</v>
       </c>
@@ -2538,9 +3102,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116"/>
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
       <c r="C116" t="n">
         <v>2015</v>
       </c>
@@ -2553,9 +3119,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117"/>
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
       <c r="C117" t="n">
         <v>2016</v>
       </c>
@@ -2568,9 +3136,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118"/>
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
       <c r="C118" t="n">
         <v>2015</v>
       </c>
@@ -2583,9 +3153,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119"/>
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
       <c r="C119" t="n">
         <v>2016</v>
       </c>
@@ -2598,9 +3170,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120"/>
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
       <c r="C120" t="n">
         <v>2015</v>
       </c>
@@ -2613,9 +3187,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121"/>
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
       <c r="C121" t="n">
         <v>2016</v>
       </c>
@@ -2628,9 +3204,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122"/>
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
       <c r="C122" t="n">
         <v>2015</v>
       </c>
@@ -2643,9 +3221,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123"/>
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
       <c r="C123" t="n">
         <v>2016</v>
       </c>
@@ -2658,9 +3238,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124"/>
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
       <c r="C124" t="n">
         <v>2015</v>
       </c>
@@ -2673,9 +3255,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125"/>
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" t="n">
         <v>2016</v>
       </c>
@@ -2688,9 +3272,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>67</v>
-      </c>
-      <c r="B126"/>
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
       <c r="C126" t="n">
         <v>2015</v>
       </c>
@@ -2703,9 +3289,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127"/>
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
       <c r="C127" t="n">
         <v>2016</v>
       </c>
@@ -2718,9 +3306,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128"/>
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="C128" t="n">
         <v>2015</v>
       </c>
@@ -2729,9 +3319,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129"/>
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
       <c r="C129" t="n">
         <v>2016</v>
       </c>
@@ -2740,9 +3332,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130"/>
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
       <c r="C130" t="n">
         <v>2015</v>
       </c>
@@ -2755,9 +3349,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131"/>
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
       <c r="C131" t="n">
         <v>2016</v>
       </c>
@@ -2770,9 +3366,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132"/>
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
       <c r="C132" t="n">
         <v>2015</v>
       </c>
@@ -2785,9 +3383,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133"/>
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
       <c r="C133" t="n">
         <v>2016</v>
       </c>
@@ -2800,9 +3400,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134"/>
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
       <c r="C134" t="n">
         <v>2015</v>
       </c>
@@ -2815,9 +3417,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135"/>
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
       <c r="C135" t="n">
         <v>2016</v>
       </c>
@@ -2830,9 +3434,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136"/>
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
       <c r="C136" t="n">
         <v>2015</v>
       </c>
@@ -2845,9 +3451,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137"/>
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
       <c r="C137" t="n">
         <v>2016</v>
       </c>
@@ -2860,9 +3468,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138"/>
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
       <c r="C138" t="n">
         <v>2015</v>
       </c>
@@ -2875,9 +3485,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139"/>
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
       <c r="C139" t="n">
         <v>2016</v>
       </c>
@@ -2890,9 +3502,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140"/>
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" t="n">
         <v>2015</v>
       </c>
@@ -2905,9 +3519,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141"/>
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
       <c r="C141" t="n">
         <v>2016</v>
       </c>
@@ -2920,9 +3536,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142"/>
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
       <c r="C142" t="n">
         <v>2015</v>
       </c>
@@ -2935,9 +3553,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143"/>
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
       <c r="C143" t="n">
         <v>2016</v>
       </c>
@@ -2950,9 +3570,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144"/>
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
       <c r="C144" t="n">
         <v>2015</v>
       </c>
@@ -2965,9 +3587,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145"/>
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
@@ -2980,9 +3604,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146"/>
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
       <c r="C146" t="n">
         <v>2015</v>
       </c>
@@ -2995,9 +3621,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147"/>
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
@@ -3010,9 +3638,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148"/>
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
       <c r="C148" t="n">
         <v>2015</v>
       </c>
@@ -3025,9 +3655,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149"/>
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
@@ -3040,9 +3672,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150"/>
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
       <c r="C150" t="n">
         <v>2015</v>
       </c>
@@ -3055,9 +3689,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151"/>
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
       <c r="C151" t="n">
         <v>2016</v>
       </c>
@@ -3070,9 +3706,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B152"/>
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
       <c r="C152" t="n">
         <v>2015</v>
       </c>
@@ -3085,9 +3723,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153"/>
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
@@ -3100,9 +3740,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154"/>
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
       <c r="C154" t="n">
         <v>2015</v>
       </c>
@@ -3115,9 +3757,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155"/>
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
@@ -3130,9 +3774,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156"/>
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
       <c r="C156" t="n">
         <v>2015</v>
       </c>
@@ -3145,9 +3791,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157"/>
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
       <c r="C157" t="n">
         <v>2016</v>
       </c>
@@ -3160,9 +3808,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158"/>
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
       <c r="C158" t="n">
         <v>2015</v>
       </c>
@@ -3175,9 +3825,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159"/>
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
       <c r="C159" t="n">
         <v>2016</v>
       </c>
@@ -3190,9 +3842,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160"/>
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
       <c r="C160" t="n">
         <v>2015</v>
       </c>
@@ -3205,9 +3859,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161"/>
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
       <c r="C161" t="n">
         <v>2016</v>
       </c>
@@ -3220,9 +3876,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>85</v>
-      </c>
-      <c r="B162"/>
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
       <c r="C162" t="n">
         <v>2015</v>
       </c>
@@ -3235,9 +3893,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163"/>
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
       <c r="C163" t="n">
         <v>2016</v>
       </c>
@@ -3250,9 +3910,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164"/>
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
       <c r="C164" t="n">
         <v>2015</v>
       </c>
@@ -3265,9 +3927,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165"/>
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
       <c r="C165" t="n">
         <v>2016</v>
       </c>
@@ -3280,9 +3944,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>87</v>
-      </c>
-      <c r="B166"/>
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
       <c r="C166" t="n">
         <v>2015</v>
       </c>
@@ -3295,9 +3961,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167"/>
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
       <c r="C167" t="n">
         <v>2016</v>
       </c>
@@ -3310,9 +3978,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168"/>
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
       <c r="C168" t="n">
         <v>2015</v>
       </c>
@@ -3325,9 +3995,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B169"/>
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
       <c r="C169" t="n">
         <v>2016</v>
       </c>
@@ -3340,9 +4012,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170"/>
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
       <c r="C170" t="n">
         <v>2015</v>
       </c>
@@ -3355,9 +4029,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171"/>
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
@@ -3370,9 +4046,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B172"/>
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
       <c r="C172" t="n">
         <v>2015</v>
       </c>
@@ -3385,9 +4063,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>90</v>
-      </c>
-      <c r="B173"/>
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
       <c r="C173" t="n">
         <v>2016</v>
       </c>
@@ -3400,9 +4080,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174"/>
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
       <c r="C174" t="n">
         <v>2015</v>
       </c>
@@ -3415,9 +4097,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175"/>
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
       <c r="C175" t="n">
         <v>2016</v>
       </c>
@@ -3430,9 +4114,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176"/>
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
       <c r="C176" t="n">
         <v>2015</v>
       </c>
@@ -3445,9 +4131,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177"/>
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
       <c r="C177" t="n">
         <v>2016</v>
       </c>
@@ -3460,9 +4148,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>93</v>
-      </c>
-      <c r="B178"/>
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
       <c r="C178" t="n">
         <v>2015</v>
       </c>
@@ -3475,9 +4165,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179"/>
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
       <c r="C179" t="n">
         <v>2016</v>
       </c>
@@ -3490,9 +4182,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B180"/>
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
       <c r="C180" t="n">
         <v>2015</v>
       </c>
@@ -3505,9 +4199,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>94</v>
-      </c>
-      <c r="B181"/>
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
       <c r="C181" t="n">
         <v>2016</v>
       </c>
@@ -3520,9 +4216,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182"/>
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
       <c r="C182" t="n">
         <v>2015</v>
       </c>
@@ -3535,9 +4233,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183"/>
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
       <c r="C183" t="n">
         <v>2016</v>
       </c>
@@ -3550,9 +4250,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>96</v>
-      </c>
-      <c r="B184"/>
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
       <c r="C184" t="n">
         <v>2015</v>
       </c>
@@ -3565,9 +4267,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B185"/>
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
       <c r="C185" t="n">
         <v>2016</v>
       </c>
@@ -3580,9 +4284,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>97</v>
-      </c>
-      <c r="B186"/>
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
       <c r="C186" t="n">
         <v>2015</v>
       </c>
@@ -3595,9 +4301,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B187"/>
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
       <c r="C187" t="n">
         <v>2016</v>
       </c>
@@ -3610,9 +4318,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188"/>
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
       <c r="C188" t="n">
         <v>2015</v>
       </c>
@@ -3625,9 +4335,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189"/>
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
       <c r="C189" t="n">
         <v>2016</v>
       </c>
@@ -3640,9 +4352,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>99</v>
-      </c>
-      <c r="B190"/>
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
       <c r="C190" t="n">
         <v>2015</v>
       </c>
@@ -3655,9 +4369,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>99</v>
-      </c>
-      <c r="B191"/>
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
       <c r="C191" t="n">
         <v>2016</v>
       </c>
@@ -3670,9 +4386,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192"/>
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
       <c r="C192" t="n">
         <v>2015</v>
       </c>
@@ -3685,9 +4403,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193"/>
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
@@ -3700,9 +4420,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>101</v>
-      </c>
-      <c r="B194"/>
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
       <c r="C194" t="n">
         <v>2015</v>
       </c>
@@ -3715,9 +4437,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>101</v>
-      </c>
-      <c r="B195"/>
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
       <c r="C195" t="n">
         <v>2016</v>
       </c>
@@ -3730,9 +4454,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196"/>
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
       <c r="C196" t="n">
         <v>2015</v>
       </c>
@@ -3745,9 +4471,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197"/>
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
       <c r="C197" t="n">
         <v>2016</v>
       </c>
@@ -3760,9 +4488,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>103</v>
-      </c>
-      <c r="B198"/>
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
       <c r="C198" t="n">
         <v>2015</v>
       </c>
@@ -3775,9 +4505,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>103</v>
-      </c>
-      <c r="B199"/>
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
       <c r="C199" t="n">
         <v>2016</v>
       </c>
@@ -3790,9 +4522,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200"/>
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
       <c r="C200" t="n">
         <v>2015</v>
       </c>
@@ -3805,9 +4539,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201"/>
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
       <c r="C201" t="n">
         <v>2016</v>
       </c>
@@ -3820,9 +4556,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>105</v>
-      </c>
-      <c r="B202"/>
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
       <c r="C202" t="n">
         <v>2015</v>
       </c>
@@ -3835,9 +4573,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203"/>
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
       <c r="C203" t="n">
         <v>2016</v>
       </c>
@@ -3850,9 +4590,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204"/>
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
       <c r="C204" t="n">
         <v>2015</v>
       </c>
@@ -3865,9 +4607,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205"/>
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
       <c r="C205" t="n">
         <v>2016</v>
       </c>
@@ -3880,9 +4624,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206"/>
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
       <c r="C206" t="n">
         <v>2015</v>
       </c>
@@ -3895,9 +4641,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B207"/>
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
       <c r="C207" t="n">
         <v>2016</v>
       </c>
@@ -3910,9 +4658,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>108</v>
-      </c>
-      <c r="B208"/>
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
       <c r="C208" t="n">
         <v>2015</v>
       </c>
@@ -3925,9 +4675,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>108</v>
-      </c>
-      <c r="B209"/>
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
       <c r="C209" t="n">
         <v>2016</v>
       </c>
@@ -3940,9 +4692,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>109</v>
-      </c>
-      <c r="B210"/>
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
       <c r="C210" t="n">
         <v>2015</v>
       </c>
@@ -3955,9 +4709,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>109</v>
-      </c>
-      <c r="B211"/>
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
       <c r="C211" t="n">
         <v>2016</v>
       </c>
@@ -3970,9 +4726,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212"/>
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
       <c r="C212" t="n">
         <v>2015</v>
       </c>
@@ -3985,9 +4743,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213"/>
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
       <c r="C213" t="n">
         <v>2016</v>
       </c>
@@ -4000,9 +4760,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214"/>
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
       <c r="C214" t="n">
         <v>2015</v>
       </c>
@@ -4015,9 +4777,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
-      </c>
-      <c r="B215"/>
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
       <c r="C215" t="n">
         <v>2016</v>
       </c>
@@ -4030,9 +4794,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216"/>
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
       <c r="C216" t="n">
         <v>2015</v>
       </c>
@@ -4045,9 +4811,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>112</v>
-      </c>
-      <c r="B217"/>
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
       <c r="C217" t="n">
         <v>2016</v>
       </c>
@@ -4060,9 +4828,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>113</v>
-      </c>
-      <c r="B218"/>
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
       <c r="C218" t="n">
         <v>2015</v>
       </c>
@@ -4075,9 +4845,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>113</v>
-      </c>
-      <c r="B219"/>
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
       <c r="C219" t="n">
         <v>2016</v>
       </c>
@@ -4090,9 +4862,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>114</v>
-      </c>
-      <c r="B220"/>
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
       <c r="C220" t="n">
         <v>2015</v>
       </c>
@@ -4105,9 +4879,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>114</v>
-      </c>
-      <c r="B221"/>
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
       <c r="C221" t="n">
         <v>2016</v>
       </c>
@@ -4120,9 +4896,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>115</v>
-      </c>
-      <c r="B222"/>
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
       <c r="C222" t="n">
         <v>2015</v>
       </c>
@@ -4135,9 +4913,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>115</v>
-      </c>
-      <c r="B223"/>
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
       <c r="C223" t="n">
         <v>2016</v>
       </c>
@@ -4150,9 +4930,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224"/>
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
       <c r="C224" t="n">
         <v>2015</v>
       </c>
@@ -4165,9 +4947,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>116</v>
-      </c>
-      <c r="B225"/>
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
       <c r="C225" t="n">
         <v>2016</v>
       </c>
@@ -4197,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -4216,14 +5000,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -4234,7 +5018,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -4245,7 +5029,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -4256,7 +5040,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -4267,14 +5051,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -4283,7 +5067,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -4294,7 +5078,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -4305,7 +5089,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -4316,7 +5100,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -4327,7 +5111,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -4338,7 +5122,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -4349,14 +5133,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -4367,7 +5151,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -4378,7 +5162,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -4389,7 +5173,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -4400,7 +5184,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -4411,7 +5195,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -4422,7 +5206,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -4433,7 +5217,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -4444,7 +5228,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -4455,7 +5239,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -4464,7 +5248,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -4475,7 +5259,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -4486,7 +5270,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -4497,7 +5281,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -4508,7 +5292,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -4519,7 +5303,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -4530,7 +5314,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4541,7 +5325,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B34" t="n">
         <v>0.0005345693</v>
@@ -4552,7 +5336,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -4563,7 +5347,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4574,7 +5358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -4585,7 +5369,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -4596,7 +5380,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -4607,7 +5391,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -4618,7 +5402,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -4629,7 +5413,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -4640,7 +5424,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -4651,7 +5435,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -4662,7 +5446,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -4673,7 +5457,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -4684,7 +5468,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -4695,7 +5479,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -4706,7 +5490,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -4717,7 +5501,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -4728,7 +5512,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -4739,7 +5523,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -4750,7 +5534,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -4761,14 +5545,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -4779,7 +5563,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -4790,7 +5574,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -4801,7 +5585,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -4812,7 +5596,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B59" t="n">
         <v>0.1732321545</v>
@@ -4823,7 +5607,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -4834,7 +5618,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B61" t="n">
         <v>8.2634232013</v>
@@ -4845,7 +5629,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -4856,7 +5640,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B63" t="n">
         <v>2.1087819018</v>
@@ -4867,7 +5651,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B64" t="n">
         <v>0.5305540697</v>
@@ -4878,14 +5662,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -4896,7 +5680,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -4907,7 +5691,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -4918,7 +5702,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -4929,7 +5713,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -4940,7 +5724,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B71" t="n">
         <v>3.6888562941</v>
@@ -4951,7 +5735,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -4962,7 +5746,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B73" t="n">
         <v>10.6500135343</v>
@@ -4973,7 +5757,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -4984,7 +5768,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -4995,7 +5779,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -5006,7 +5790,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -5017,7 +5801,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B78" t="n">
         <v>2.9593896935</v>
@@ -5028,7 +5812,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -5039,7 +5823,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -5050,7 +5834,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -5061,7 +5845,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -5072,7 +5856,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B83" t="n">
         <v>10.9490265287</v>
@@ -5083,7 +5867,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B84" t="n">
         <v>0.8201766689</v>
@@ -5094,7 +5878,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B85" t="n">
         <v>15.0151000413</v>
@@ -5105,7 +5889,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B86" t="n">
         <v>0.1032481952</v>
@@ -5116,7 +5900,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -5127,7 +5911,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="B88" t="n">
         <v>0.7218076629</v>
@@ -5138,7 +5922,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -5149,7 +5933,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -5160,7 +5944,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -5171,7 +5955,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B92" t="n">
         <v>0.8583023293</v>
@@ -5182,7 +5966,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -5193,7 +5977,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -5204,7 +5988,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
         <v>0.0374877426</v>
@@ -5215,7 +5999,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -5226,7 +6010,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -5237,7 +6021,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -5248,7 +6032,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -5259,7 +6043,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -5270,7 +6054,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -5281,7 +6065,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="B102" t="n">
         <v>0.5951487211</v>
@@ -5292,7 +6076,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="B103" t="n">
         <v>1.0787286818</v>
@@ -5303,7 +6087,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -5314,7 +6098,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -5325,7 +6109,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -5336,7 +6120,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -5347,7 +6131,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -5358,7 +6142,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -5369,7 +6153,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -5380,7 +6164,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -5391,7 +6175,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="B112" t="n">
         <v>0.0592143945</v>
@@ -5402,7 +6186,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B113" t="n">
         <v>0.2175155214</v>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -31,36 +31,498 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -79,28 +541,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -109,598 +691,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -1213,10 +1213,10 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7418685936</v>
+        <v>3.6888562941</v>
       </c>
       <c r="E2" t="n">
-        <v>53246.58919</v>
+        <v>12477.49049</v>
       </c>
     </row>
     <row r="3">
@@ -1230,10 +1230,10 @@
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>10.980880331</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>40607.88277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1246,8 +1246,12 @@
       <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1259,8 +1263,12 @@
       <c r="C5" t="n">
         <v>2016</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="n">
+        <v>0.7502706017</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2774.540813</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1290,10 +1298,10 @@
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.0952466374</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>352.2271594</v>
       </c>
     </row>
     <row r="8">
@@ -1358,10 +1366,10 @@
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2524575881</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>933.6016633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1408,8 +1416,12 @@
       <c r="C14" t="n">
         <v>2015</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1421,8 +1433,12 @@
       <c r="C15" t="n">
         <v>2016</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1435,10 +1451,10 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>10.6500135343</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36023.48045</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1467,12 @@
       <c r="C17" t="n">
         <v>2016</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1465,10 +1485,10 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1732321545</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>585.9546666</v>
       </c>
     </row>
     <row r="19">
@@ -1482,10 +1502,10 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1584494841</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>585.9546666</v>
       </c>
     </row>
     <row r="20">
@@ -1550,10 +1570,10 @@
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.1681450385</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>621.8093456</v>
       </c>
     </row>
     <row r="24">
@@ -1617,12 +1637,8 @@
       <c r="C27" t="n">
         <v>2016</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
+      <c r="D27"/>
+      <c r="E27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1668,8 +1684,12 @@
       <c r="C30" t="n">
         <v>2015</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1681,8 +1701,12 @@
       <c r="C31" t="n">
         <v>2016</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1831,10 +1855,10 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.0787286818</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3648.780488</v>
       </c>
     </row>
     <row r="41">
@@ -1865,10 +1889,10 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.7218076629</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2441.50152</v>
       </c>
     </row>
     <row r="43">
@@ -1882,10 +1906,10 @@
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.3352358372</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1239.720056</v>
       </c>
     </row>
     <row r="44">
@@ -1916,10 +1940,10 @@
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1166004051</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>431.1945342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2017,8 +2041,12 @@
       <c r="C51" t="n">
         <v>2016</v>
       </c>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -2167,10 +2195,10 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>8.2634232013</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>27950.8813</v>
       </c>
     </row>
     <row r="61">
@@ -2184,10 +2212,10 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>2.4635292565</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>9110.262951</v>
       </c>
     </row>
     <row r="62">
@@ -2269,10 +2297,10 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0005345693</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.808171125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2286,10 +2314,10 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0004889521</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1.808171125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2439,10 +2467,10 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.8583023293</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2903.19229</v>
       </c>
     </row>
     <row r="77">
@@ -2507,10 +2535,10 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>15.7418685936</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>53246.58919</v>
       </c>
     </row>
     <row r="81">
@@ -2524,10 +2552,10 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>10.980880331</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>40607.88277</v>
       </c>
     </row>
     <row r="82">
@@ -2558,10 +2586,10 @@
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1681450385</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>621.8093456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2592,10 +2620,10 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>0.1166004051</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>431.1945342</v>
       </c>
     </row>
     <row r="86">
@@ -2608,12 +2636,8 @@
       <c r="C86" t="n">
         <v>2015</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2625,12 +2649,8 @@
       <c r="C87" t="n">
         <v>2016</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
+      <c r="D87"/>
+      <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2796,10 +2816,10 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.0391382014</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>144.7351619</v>
       </c>
     </row>
     <row r="98">
@@ -2948,8 +2968,12 @@
       <c r="C106" t="n">
         <v>2015</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2961,8 +2985,12 @@
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -3043,10 +3071,10 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.0374877426</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>126.8016194</v>
       </c>
     </row>
     <row r="113">
@@ -3060,10 +3088,10 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.0342887468</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>126.8016194</v>
       </c>
     </row>
     <row r="114">
@@ -3094,10 +3122,10 @@
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7502706017</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2774.540813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3111,10 +3139,10 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1732321545</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>585.9546666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3128,10 +3156,10 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1584494841</v>
+        <v>1.0108745741</v>
       </c>
       <c r="E117" t="n">
-        <v>585.9546666</v>
+        <v>3738.268241</v>
       </c>
     </row>
     <row r="118">
@@ -3179,10 +3207,10 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>8.2634232013</v>
+        <v>2.1087819018</v>
       </c>
       <c r="E120" t="n">
-        <v>27950.8813</v>
+        <v>7132.917096</v>
       </c>
     </row>
     <row r="121">
@@ -3196,10 +3224,10 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>2.4635292565</v>
+        <v>3.5103500976</v>
       </c>
       <c r="E121" t="n">
-        <v>9110.262951</v>
+        <v>12981.46241</v>
       </c>
     </row>
     <row r="122">
@@ -3247,10 +3275,10 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>2.1087819018</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>7132.917096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3264,10 +3292,10 @@
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>3.5103500976</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>12981.46241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3281,10 +3309,10 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5305540697</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1794.589659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3298,10 +3326,10 @@
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4852795306</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1794.589659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3314,8 +3342,12 @@
       <c r="C128" t="n">
         <v>2015</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -3327,8 +3359,12 @@
       <c r="C129" t="n">
         <v>2016</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
+      <c r="D129" t="n">
+        <v>1.4846860458</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5490.448405</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -3341,10 +3377,10 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.5951487211</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2013.079913</v>
       </c>
     </row>
     <row r="131">
@@ -3358,10 +3394,10 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.544362033</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>2013.079913</v>
       </c>
     </row>
     <row r="132">
@@ -3375,10 +3411,10 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>10.9490265287</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>37034.88656</v>
       </c>
     </row>
     <row r="133">
@@ -3409,10 +3445,10 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>0.5305540697</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1794.589659</v>
       </c>
     </row>
     <row r="135">
@@ -3426,10 +3462,10 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.4852795306</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1794.589659</v>
       </c>
     </row>
     <row r="136">
@@ -3442,12 +3478,8 @@
       <c r="C136" t="n">
         <v>2015</v>
       </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -3459,12 +3491,8 @@
       <c r="C137" t="n">
         <v>2016</v>
       </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
+      <c r="D137"/>
+      <c r="E137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -3511,10 +3539,10 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>3.6888562941</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>12477.49049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3579,10 +3607,10 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>10.6500135343</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>36023.48045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3630,10 +3658,10 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>0.0074996888</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>27.73425041</v>
       </c>
     </row>
     <row r="148">
@@ -3664,10 +3692,10 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>0.2524575881</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>933.6016633</v>
       </c>
     </row>
     <row r="150">
@@ -3698,10 +3726,10 @@
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>1.0108745741</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>3738.268241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3732,10 +3760,10 @@
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0074996888</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>27.73425041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3749,10 +3777,10 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>2.9593896935</v>
+        <v>0.0005345693</v>
       </c>
       <c r="E154" t="n">
-        <v>10010.08275</v>
+        <v>1.808171125</v>
       </c>
     </row>
     <row r="155">
@@ -3766,10 +3794,10 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>0.0004889521</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1.808171125</v>
       </c>
     </row>
     <row r="156">
@@ -3800,10 +3828,10 @@
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0952466374</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>352.2271594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3850,12 +3878,8 @@
       <c r="C160" t="n">
         <v>2015</v>
       </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -3867,12 +3891,8 @@
       <c r="C161" t="n">
         <v>2016</v>
       </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
+      <c r="D161"/>
+      <c r="E161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -3884,12 +3904,8 @@
       <c r="C162" t="n">
         <v>2015</v>
       </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -3901,12 +3917,8 @@
       <c r="C163" t="n">
         <v>2016</v>
       </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
+      <c r="D163"/>
+      <c r="E163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -3919,10 +3931,10 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>10.9490265287</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>37034.88656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3953,10 +3965,10 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8201766689</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>2774.232925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3986,12 +3998,8 @@
       <c r="C168" t="n">
         <v>2015</v>
       </c>
-      <c r="D168" t="n">
-        <v>15.0151000413</v>
-      </c>
-      <c r="E168" t="n">
-        <v>50788.30755</v>
-      </c>
+      <c r="D168"/>
+      <c r="E168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -4003,12 +4011,8 @@
       <c r="C169" t="n">
         <v>2016</v>
       </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
+      <c r="D169"/>
+      <c r="E169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -4021,10 +4025,10 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1032481952</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>349.235175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4037,12 +4041,8 @@
       <c r="C171" t="n">
         <v>2016</v>
       </c>
-      <c r="D171" t="n">
-        <v>0.0944375674</v>
-      </c>
-      <c r="E171" t="n">
-        <v>349.235175</v>
-      </c>
+      <c r="D171"/>
+      <c r="E171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -4089,10 +4089,10 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7218076629</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>2441.50152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4106,10 +4106,10 @@
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3352358372</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1239.720056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4225,10 +4225,10 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8583023293</v>
+        <v>0.8201766689</v>
       </c>
       <c r="E182" t="n">
-        <v>2903.19229</v>
+        <v>2774.232925</v>
       </c>
     </row>
     <row r="183">
@@ -4276,10 +4276,10 @@
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0391382014</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>144.7351619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4327,10 +4327,10 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0374877426</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>126.8016194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4344,10 +4344,10 @@
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0342887468</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>126.8016194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4395,10 +4395,10 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>15.0151000413</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>50788.30755</v>
       </c>
     </row>
     <row r="193">
@@ -4429,10 +4429,10 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>0.1032481952</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>349.235175</v>
       </c>
     </row>
     <row r="195">
@@ -4446,10 +4446,10 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>0.0944375674</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>349.235175</v>
       </c>
     </row>
     <row r="196">
@@ -4463,10 +4463,10 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>2.9593896935</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>10010.08275</v>
       </c>
     </row>
     <row r="197">
@@ -4565,10 +4565,10 @@
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5951487211</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>2013.079913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4582,10 +4582,10 @@
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>0.544362033</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>2013.079913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4599,10 +4599,10 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>1.0787286818</v>
+        <v>0.0592143945</v>
       </c>
       <c r="E204" t="n">
-        <v>3648.780488</v>
+        <v>200.2916312</v>
       </c>
     </row>
     <row r="205">
@@ -4616,10 +4616,10 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>0.2554556047</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>944.688489</v>
       </c>
     </row>
     <row r="206">
@@ -4701,10 +4701,10 @@
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>0.2175155214</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>735.742364</v>
       </c>
     </row>
     <row r="211">
@@ -4718,10 +4718,10 @@
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>0.1989539543</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>735.742364</v>
       </c>
     </row>
     <row r="212">
@@ -4820,10 +4820,10 @@
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>1.4846860458</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>5490.448405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4905,10 +4905,10 @@
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0592143945</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>200.2916312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4922,10 +4922,10 @@
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2554556047</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>944.688489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4939,10 +4939,10 @@
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>0.2175155214</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>735.742364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4956,10 +4956,10 @@
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1989539543</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>735.742364</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4981,9 +4981,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4991,39 +4994,55 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>15.7418685936</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>10.980880331</v>
+        <v>3.6888562941</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7502706017</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0952466374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5031,21 +5050,27 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2524575881</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5053,37 +5078,55 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9"/>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.6500135343</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1732321545</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1584494841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5134,27 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1681450385</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5113,21 +5162,25 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5135,17 +5188,27 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5153,10 +5216,13 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5164,10 +5230,13 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5175,10 +5244,13 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5186,10 +5258,13 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="n">
+        <v>1.0787286818</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5197,32 +5272,41 @@
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.7218076629</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3352358372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1166004051</v>
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,10 +5314,13 @@
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5241,19 +5328,27 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26"/>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5261,10 +5356,13 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5272,10 +5370,13 @@
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5283,10 +5384,13 @@
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5294,21 +5398,27 @@
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>8.2634232013</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.4635292565</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5316,10 +5426,13 @@
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5327,21 +5440,27 @@
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="n">
-        <v>0.0005345693</v>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0004889521</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5349,10 +5468,13 @@
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,10 +5482,13 @@
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5371,10 +5496,13 @@
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5382,10 +5510,13 @@
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="n">
+        <v>0.8583023293</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5393,10 +5524,13 @@
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5404,54 +5538,65 @@
       <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15.7418685936</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.980880331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1681450385</v>
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1166004051</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>92</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5459,10 +5604,13 @@
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5470,10 +5618,13 @@
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
+      <c r="B47" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,10 +5632,13 @@
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="n">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>98</v>
       </c>
       <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5492,21 +5646,27 @@
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0391382014</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>102</v>
       </c>
       <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5514,10 +5674,13 @@
       <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>104</v>
       </c>
       <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5525,10 +5688,13 @@
       <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5536,10 +5702,13 @@
       <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>108</v>
       </c>
       <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5547,17 +5716,27 @@
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54"/>
-      <c r="C54"/>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="n">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5565,10 +5744,13 @@
       <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5576,43 +5758,55 @@
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="n">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.0374877426</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0342887468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7502706017</v>
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="n">
-        <v>0.1732321545</v>
+      <c r="B59" t="s">
+        <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1584494841</v>
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.0108745741</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>122</v>
       </c>
       <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,21 +5814,27 @@
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="n">
-        <v>8.2634232013</v>
+      <c r="B61" t="s">
+        <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>2.4635292565</v>
+        <v>2.1087819018</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.5103500976</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>126</v>
       </c>
       <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5642,50 +5842,69 @@
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="n">
-        <v>2.1087819018</v>
+      <c r="B63" t="s">
+        <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>3.5103500976</v>
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="n">
-        <v>0.5305540697</v>
+      <c r="B64" t="s">
+        <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4852795306</v>
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>131</v>
       </c>
-      <c r="B65"/>
-      <c r="C65"/>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.4846860458</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.5951487211</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.544362033</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
+      <c r="B67" t="s">
+        <v>136</v>
       </c>
       <c r="C67" t="n">
+        <v>10.9490265287</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5693,32 +5912,37 @@
       <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="n">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.5305540697</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4852795306</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="n">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>142</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5726,10 +5950,13 @@
       <c r="A71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="n">
-        <v>3.6888562941</v>
+      <c r="B71" t="s">
+        <v>144</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5737,10 +5964,13 @@
       <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5748,10 +5978,13 @@
       <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="n">
-        <v>10.6500135343</v>
+      <c r="B73" t="s">
+        <v>148</v>
       </c>
       <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5759,76 +5992,97 @@
       <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0074996888</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="n">
-        <v>0</v>
+      <c r="B75" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.2524575881</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="n">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0108745741</v>
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="n">
-        <v>0</v>
+      <c r="B77" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0074996888</v>
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="n">
-        <v>2.9593896935</v>
+      <c r="B78" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.0005345693</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0004889521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
+      <c r="B79" t="s">
+        <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0952466374</v>
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="n">
-        <v>0</v>
+      <c r="B80" t="s">
+        <v>162</v>
       </c>
       <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5836,32 +6090,33 @@
       <c r="A81" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="n">
-        <v>10.9490265287</v>
+      <c r="B83" t="s">
+        <v>168</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5869,10 +6124,13 @@
       <c r="A84" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="n">
-        <v>0.8201766689</v>
+      <c r="B84" t="s">
+        <v>170</v>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,32 +6138,35 @@
       <c r="A85" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="n">
-        <v>15.0151000413</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="n">
-        <v>0.1032481952</v>
+      <c r="B86" t="s">
+        <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0944375674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="n">
-        <v>0</v>
+      <c r="B87" t="s">
+        <v>176</v>
       </c>
       <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5913,21 +6174,27 @@
       <c r="A88" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="n">
-        <v>0.7218076629</v>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3352358372</v>
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="n">
-        <v>0</v>
+      <c r="B89" t="s">
+        <v>180</v>
       </c>
       <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5935,10 +6202,13 @@
       <c r="A90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="n">
-        <v>0</v>
+      <c r="B90" t="s">
+        <v>182</v>
       </c>
       <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,10 +6216,13 @@
       <c r="A91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
+      <c r="B91" t="s">
+        <v>184</v>
       </c>
       <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5957,10 +6230,13 @@
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="n">
-        <v>0.8583023293</v>
+      <c r="B92" t="s">
+        <v>186</v>
       </c>
       <c r="C92" t="n">
+        <v>0.8201766689</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5968,21 +6244,27 @@
       <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="n">
-        <v>0</v>
+      <c r="B93" t="s">
+        <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0391382014</v>
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="n">
-        <v>0</v>
+      <c r="B94" t="s">
+        <v>190</v>
       </c>
       <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5990,21 +6272,27 @@
       <c r="A95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="n">
-        <v>0.0374877426</v>
+      <c r="B95" t="s">
+        <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0342887468</v>
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="n">
-        <v>0</v>
+      <c r="B96" t="s">
+        <v>194</v>
       </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6012,10 +6300,13 @@
       <c r="A97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="n">
-        <v>0</v>
+      <c r="B97" t="s">
+        <v>196</v>
       </c>
       <c r="C97" t="n">
+        <v>15.0151000413</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6023,21 +6314,27 @@
       <c r="A98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="n">
-        <v>0</v>
+      <c r="B98" t="s">
+        <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.1032481952</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0944375674</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="n">
-        <v>0</v>
+      <c r="B99" t="s">
+        <v>200</v>
       </c>
       <c r="C99" t="n">
+        <v>2.9593896935</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6045,10 +6342,13 @@
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="n">
-        <v>0</v>
+      <c r="B100" t="s">
+        <v>202</v>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6056,10 +6356,13 @@
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="n">
-        <v>0</v>
+      <c r="B101" t="s">
+        <v>204</v>
       </c>
       <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6067,32 +6370,41 @@
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="n">
-        <v>0.5951487211</v>
+      <c r="B102" t="s">
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>0.544362033</v>
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="n">
-        <v>1.0787286818</v>
+      <c r="B103" t="s">
+        <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.0592143945</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.2554556047</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="n">
-        <v>0</v>
+      <c r="B104" t="s">
+        <v>210</v>
       </c>
       <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6100,10 +6412,13 @@
       <c r="A105" t="s">
         <v>211</v>
       </c>
-      <c r="B105" t="n">
-        <v>0</v>
+      <c r="B105" t="s">
+        <v>212</v>
       </c>
       <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6111,21 +6426,27 @@
       <c r="A106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="n">
-        <v>0</v>
+      <c r="B106" t="s">
+        <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.2175155214</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.1989539543</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="n">
-        <v>0</v>
+      <c r="B107" t="s">
+        <v>216</v>
       </c>
       <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6133,10 +6454,13 @@
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="n">
-        <v>0</v>
+      <c r="B108" t="s">
+        <v>218</v>
       </c>
       <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6144,21 +6468,27 @@
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="n">
-        <v>0</v>
+      <c r="B109" t="s">
+        <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>1.4846860458</v>
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="n">
-        <v>0</v>
+      <c r="B110" t="s">
+        <v>222</v>
       </c>
       <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,10 +6496,13 @@
       <c r="A111" t="s">
         <v>223</v>
       </c>
-      <c r="B111" t="n">
-        <v>0</v>
+      <c r="B111" t="s">
+        <v>224</v>
       </c>
       <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6177,22 +6510,28 @@
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="n">
-        <v>0.0592143945</v>
+      <c r="B112" t="s">
+        <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2554556047</v>
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="n">
-        <v>0.2175155214</v>
+      <c r="B113" t="s">
+        <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1989539543</v>
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,340 +31,676 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1113,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -870,59 +1206,77 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7418685936</v>
+        <v>3.6888562941</v>
       </c>
       <c r="E2" t="n">
-        <v>53246.58919</v>
+        <v>12477.49049</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="n">
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>10.980880331</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>40607.88277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="n">
         <v>2016</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="n">
+        <v>0.7502706017</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2774.540813</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
@@ -935,24 +1289,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="n">
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.0952466374</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>352.2271594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8"/>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
@@ -965,9 +1323,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
@@ -980,9 +1340,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10"/>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
@@ -995,24 +1357,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" t="n">
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2524575881</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>933.6016633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12"/>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
@@ -1025,9 +1391,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" t="n">
         <v>2016</v>
       </c>
@@ -1040,87 +1408,113 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14"/>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="n">
         <v>2016</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16"/>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>10.6500135343</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36023.48045</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" t="n">
         <v>2016</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18"/>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1732321545</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>585.9546666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1584494841</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>585.9546666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20"/>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
@@ -1133,9 +1527,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21"/>
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="n">
         <v>2016</v>
       </c>
@@ -1148,9 +1544,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
@@ -1163,24 +1561,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23"/>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.1681450385</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>621.8093456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
@@ -1193,9 +1595,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25"/>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" t="n">
         <v>2016</v>
       </c>
@@ -1208,9 +1612,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26"/>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
@@ -1223,24 +1629,24 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27"/>
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
+      <c r="D27"/>
+      <c r="E27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28"/>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
@@ -1253,9 +1659,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29"/>
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" t="n">
         <v>2016</v>
       </c>
@@ -1268,31 +1676,45 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30"/>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31"/>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" t="n">
         <v>2016</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32"/>
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
@@ -1305,9 +1727,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33"/>
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" t="n">
         <v>2016</v>
       </c>
@@ -1320,9 +1744,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34"/>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
@@ -1335,9 +1761,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35"/>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" t="n">
         <v>2016</v>
       </c>
@@ -1350,9 +1778,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36"/>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
@@ -1365,9 +1795,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37"/>
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" t="n">
         <v>2016</v>
       </c>
@@ -1380,9 +1812,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38"/>
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
@@ -1395,9 +1829,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39"/>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
@@ -1410,24 +1846,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.0787286818</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3648.780488</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41"/>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" t="n">
         <v>2016</v>
       </c>
@@ -1440,39 +1880,45 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42"/>
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.7218076629</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2441.50152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43"/>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" t="n">
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.3352358372</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1239.720056</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44"/>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
@@ -1485,24 +1931,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45"/>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" t="n">
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1166004051</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>431.1945342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46"/>
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
@@ -1515,9 +1965,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47"/>
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" t="n">
         <v>2016</v>
       </c>
@@ -1530,9 +1982,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48"/>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
@@ -1545,9 +1999,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49"/>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" t="n">
         <v>2016</v>
       </c>
@@ -1560,9 +2016,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50"/>
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
@@ -1575,20 +2033,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51"/>
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="n">
         <v>2016</v>
       </c>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52"/>
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
@@ -1601,9 +2067,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53"/>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" t="n">
         <v>2016</v>
       </c>
@@ -1616,9 +2084,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54"/>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
@@ -1631,9 +2101,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55"/>
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" t="n">
         <v>2016</v>
       </c>
@@ -1646,9 +2118,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56"/>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
@@ -1661,9 +2135,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57"/>
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
@@ -1676,9 +2152,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58"/>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
@@ -1691,9 +2169,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59"/>
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" t="n">
         <v>2016</v>
       </c>
@@ -1706,39 +2186,45 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60"/>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>8.2634232013</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>27950.8813</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61"/>
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" t="n">
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>2.4635292565</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>9110.262951</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62"/>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
@@ -1751,9 +2237,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63"/>
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
@@ -1766,9 +2254,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64"/>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
@@ -1781,9 +2271,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65"/>
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
       <c r="C65" t="n">
         <v>2016</v>
       </c>
@@ -1796,39 +2288,45 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66"/>
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0005345693</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.808171125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67"/>
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" t="n">
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0004889521</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1.808171125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68"/>
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
@@ -1841,9 +2339,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69"/>
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
@@ -1856,9 +2356,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70"/>
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
@@ -1871,9 +2373,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71"/>
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
       <c r="C71" t="n">
         <v>2016</v>
       </c>
@@ -1886,9 +2390,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72"/>
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
@@ -1901,9 +2407,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73"/>
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
@@ -1916,9 +2424,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74"/>
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
@@ -1931,9 +2441,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75"/>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
       <c r="C75" t="n">
         <v>2016</v>
       </c>
@@ -1946,24 +2458,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76"/>
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.8583023293</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2903.19229</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77"/>
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
       <c r="C77" t="n">
         <v>2016</v>
       </c>
@@ -1976,9 +2492,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78"/>
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
@@ -1991,9 +2509,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79"/>
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
       <c r="C79" t="n">
         <v>2016</v>
       </c>
@@ -2006,39 +2526,45 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80"/>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>15.7418685936</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>53246.58919</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81"/>
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
       <c r="C81" t="n">
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>10.980880331</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>40607.88277</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82"/>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
@@ -2051,24 +2577,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83"/>
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" t="n">
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1681450385</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>621.8093456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84"/>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
@@ -2081,54 +2611,54 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85"/>
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
       <c r="C85" t="n">
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>0.1166004051</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>431.1945342</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86"/>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87"/>
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
       <c r="C87" t="n">
         <v>2016</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
+      <c r="D87"/>
+      <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88"/>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
@@ -2141,9 +2671,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89"/>
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" t="n">
         <v>2016</v>
       </c>
@@ -2156,9 +2688,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90"/>
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
@@ -2171,9 +2705,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91"/>
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" t="n">
         <v>2016</v>
       </c>
@@ -2186,9 +2722,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92"/>
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
@@ -2201,9 +2739,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93"/>
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
       <c r="C93" t="n">
         <v>2016</v>
       </c>
@@ -2216,9 +2756,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94"/>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
@@ -2231,9 +2773,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95"/>
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
       <c r="C95" t="n">
         <v>2016</v>
       </c>
@@ -2246,9 +2790,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96"/>
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
@@ -2261,24 +2807,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97"/>
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
       <c r="C97" t="n">
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.0391382014</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>144.7351619</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98"/>
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
@@ -2291,9 +2841,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99"/>
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
       <c r="C99" t="n">
         <v>2016</v>
       </c>
@@ -2306,9 +2858,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100"/>
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
@@ -2321,9 +2875,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101"/>
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
       <c r="C101" t="n">
         <v>2016</v>
       </c>
@@ -2336,9 +2892,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102"/>
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
@@ -2351,9 +2909,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103"/>
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
       <c r="C103" t="n">
         <v>2016</v>
       </c>
@@ -2366,9 +2926,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104"/>
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
@@ -2381,9 +2943,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105"/>
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
       <c r="C105" t="n">
         <v>2016</v>
       </c>
@@ -2396,31 +2960,45 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106"/>
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107"/>
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108"/>
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
@@ -2433,9 +3011,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109"/>
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
       <c r="C109" t="n">
         <v>2016</v>
       </c>
@@ -2448,9 +3028,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110"/>
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
@@ -2463,9 +3045,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111"/>
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
       <c r="C111" t="n">
         <v>2016</v>
       </c>
@@ -2478,39 +3062,45 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112"/>
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.0374877426</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>126.8016194</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113"/>
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
       <c r="C113" t="n">
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.0342887468</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>126.8016194</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114"/>
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
       <c r="C114" t="n">
         <v>2015</v>
       </c>
@@ -2523,54 +3113,62 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115"/>
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
       <c r="C115" t="n">
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7502706017</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2774.540813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116"/>
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
       <c r="C116" t="n">
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1732321545</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>585.9546666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117"/>
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
       <c r="C117" t="n">
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1584494841</v>
+        <v>1.0108745741</v>
       </c>
       <c r="E117" t="n">
-        <v>585.9546666</v>
+        <v>3738.268241</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118"/>
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
       <c r="C118" t="n">
         <v>2015</v>
       </c>
@@ -2583,9 +3181,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119"/>
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
       <c r="C119" t="n">
         <v>2016</v>
       </c>
@@ -2598,39 +3198,45 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120"/>
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
       <c r="C120" t="n">
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>8.2634232013</v>
+        <v>2.1087819018</v>
       </c>
       <c r="E120" t="n">
-        <v>27950.8813</v>
+        <v>7132.917096</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121"/>
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
       <c r="C121" t="n">
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>2.4635292565</v>
+        <v>3.5103500976</v>
       </c>
       <c r="E121" t="n">
-        <v>9110.262951</v>
+        <v>12981.46241</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122"/>
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
       <c r="C122" t="n">
         <v>2015</v>
       </c>
@@ -2643,9 +3249,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123"/>
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
       <c r="C123" t="n">
         <v>2016</v>
       </c>
@@ -2658,136 +3266,164 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124"/>
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
       <c r="C124" t="n">
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>2.1087819018</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>7132.917096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125"/>
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" t="n">
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>3.5103500976</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>12981.46241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>67</v>
-      </c>
-      <c r="B126"/>
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
       <c r="C126" t="n">
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5305540697</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1794.589659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127"/>
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
       <c r="C127" t="n">
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4852795306</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1794.589659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128"/>
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="C128" t="n">
         <v>2015</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129"/>
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
       <c r="C129" t="n">
         <v>2016</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
+      <c r="D129" t="n">
+        <v>1.4846860458</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5490.448405</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130"/>
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
       <c r="C130" t="n">
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.5951487211</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2013.079913</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131"/>
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
       <c r="C131" t="n">
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.544362033</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>2013.079913</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132"/>
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
       <c r="C132" t="n">
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>10.9490265287</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>37034.88656</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133"/>
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
       <c r="C133" t="n">
         <v>2016</v>
       </c>
@@ -2800,69 +3436,71 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134"/>
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
       <c r="C134" t="n">
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>0.5305540697</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1794.589659</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135"/>
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
       <c r="C135" t="n">
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.4852795306</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1794.589659</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136"/>
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
       <c r="C136" t="n">
         <v>2015</v>
       </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137"/>
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
       <c r="C137" t="n">
         <v>2016</v>
       </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
+      <c r="D137"/>
+      <c r="E137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138"/>
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
       <c r="C138" t="n">
         <v>2015</v>
       </c>
@@ -2875,9 +3513,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139"/>
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
       <c r="C139" t="n">
         <v>2016</v>
       </c>
@@ -2890,24 +3530,28 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140"/>
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" t="n">
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>3.6888562941</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>12477.49049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141"/>
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
       <c r="C141" t="n">
         <v>2016</v>
       </c>
@@ -2920,9 +3564,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142"/>
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
       <c r="C142" t="n">
         <v>2015</v>
       </c>
@@ -2935,9 +3581,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143"/>
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
       <c r="C143" t="n">
         <v>2016</v>
       </c>
@@ -2950,24 +3598,28 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144"/>
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
       <c r="C144" t="n">
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>10.6500135343</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>36023.48045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145"/>
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
@@ -2980,9 +3632,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146"/>
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
       <c r="C146" t="n">
         <v>2015</v>
       </c>
@@ -2995,24 +3649,28 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147"/>
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>0.0074996888</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>27.73425041</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148"/>
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
       <c r="C148" t="n">
         <v>2015</v>
       </c>
@@ -3025,24 +3683,28 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149"/>
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>0.2524575881</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>933.6016633</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150"/>
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
       <c r="C150" t="n">
         <v>2015</v>
       </c>
@@ -3055,24 +3717,28 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151"/>
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
       <c r="C151" t="n">
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>1.0108745741</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>3738.268241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B152"/>
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
       <c r="C152" t="n">
         <v>2015</v>
       </c>
@@ -3085,54 +3751,62 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153"/>
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0074996888</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>27.73425041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154"/>
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
       <c r="C154" t="n">
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>2.9593896935</v>
+        <v>0.0005345693</v>
       </c>
       <c r="E154" t="n">
-        <v>10010.08275</v>
+        <v>1.808171125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155"/>
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>0.0004889521</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1.808171125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156"/>
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
       <c r="C156" t="n">
         <v>2015</v>
       </c>
@@ -3145,24 +3819,28 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157"/>
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
       <c r="C157" t="n">
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0952466374</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>352.2271594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158"/>
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
       <c r="C158" t="n">
         <v>2015</v>
       </c>
@@ -3175,9 +3853,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159"/>
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
       <c r="C159" t="n">
         <v>2016</v>
       </c>
@@ -3190,84 +3870,80 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160"/>
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
       <c r="C160" t="n">
         <v>2015</v>
       </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161"/>
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
       <c r="C161" t="n">
         <v>2016</v>
       </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
+      <c r="D161"/>
+      <c r="E161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>85</v>
-      </c>
-      <c r="B162"/>
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
       <c r="C162" t="n">
         <v>2015</v>
       </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163"/>
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
       <c r="C163" t="n">
         <v>2016</v>
       </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
+      <c r="D163"/>
+      <c r="E163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164"/>
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
       <c r="C164" t="n">
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>10.9490265287</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>37034.88656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165"/>
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
       <c r="C165" t="n">
         <v>2016</v>
       </c>
@@ -3280,24 +3956,28 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>87</v>
-      </c>
-      <c r="B166"/>
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
       <c r="C166" t="n">
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8201766689</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>2774.232925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167"/>
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
       <c r="C167" t="n">
         <v>2016</v>
       </c>
@@ -3310,69 +3990,67 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168"/>
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
       <c r="C168" t="n">
         <v>2015</v>
       </c>
-      <c r="D168" t="n">
-        <v>15.0151000413</v>
-      </c>
-      <c r="E168" t="n">
-        <v>50788.30755</v>
-      </c>
+      <c r="D168"/>
+      <c r="E168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B169"/>
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
       <c r="C169" t="n">
         <v>2016</v>
       </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
+      <c r="D169"/>
+      <c r="E169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170"/>
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
       <c r="C170" t="n">
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1032481952</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>349.235175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171"/>
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
-      <c r="D171" t="n">
-        <v>0.0944375674</v>
-      </c>
-      <c r="E171" t="n">
-        <v>349.235175</v>
-      </c>
+      <c r="D171"/>
+      <c r="E171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B172"/>
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
       <c r="C172" t="n">
         <v>2015</v>
       </c>
@@ -3385,9 +4063,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>90</v>
-      </c>
-      <c r="B173"/>
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
       <c r="C173" t="n">
         <v>2016</v>
       </c>
@@ -3400,39 +4080,45 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174"/>
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
       <c r="C174" t="n">
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7218076629</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>2441.50152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175"/>
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
       <c r="C175" t="n">
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3352358372</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1239.720056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176"/>
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
       <c r="C176" t="n">
         <v>2015</v>
       </c>
@@ -3445,9 +4131,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177"/>
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
       <c r="C177" t="n">
         <v>2016</v>
       </c>
@@ -3460,9 +4148,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>93</v>
-      </c>
-      <c r="B178"/>
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
       <c r="C178" t="n">
         <v>2015</v>
       </c>
@@ -3475,9 +4165,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179"/>
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
       <c r="C179" t="n">
         <v>2016</v>
       </c>
@@ -3490,9 +4182,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B180"/>
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
       <c r="C180" t="n">
         <v>2015</v>
       </c>
@@ -3505,9 +4199,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>94</v>
-      </c>
-      <c r="B181"/>
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
       <c r="C181" t="n">
         <v>2016</v>
       </c>
@@ -3520,24 +4216,28 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182"/>
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
       <c r="C182" t="n">
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8583023293</v>
+        <v>0.8201766689</v>
       </c>
       <c r="E182" t="n">
-        <v>2903.19229</v>
+        <v>2774.232925</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183"/>
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
       <c r="C183" t="n">
         <v>2016</v>
       </c>
@@ -3550,9 +4250,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>96</v>
-      </c>
-      <c r="B184"/>
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
       <c r="C184" t="n">
         <v>2015</v>
       </c>
@@ -3565,24 +4267,28 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B185"/>
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
       <c r="C185" t="n">
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0391382014</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>144.7351619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>97</v>
-      </c>
-      <c r="B186"/>
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
       <c r="C186" t="n">
         <v>2015</v>
       </c>
@@ -3595,9 +4301,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B187"/>
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
       <c r="C187" t="n">
         <v>2016</v>
       </c>
@@ -3610,39 +4318,45 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188"/>
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
       <c r="C188" t="n">
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0374877426</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>126.8016194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189"/>
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
       <c r="C189" t="n">
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0342887468</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>126.8016194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>99</v>
-      </c>
-      <c r="B190"/>
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
       <c r="C190" t="n">
         <v>2015</v>
       </c>
@@ -3655,9 +4369,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>99</v>
-      </c>
-      <c r="B191"/>
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
       <c r="C191" t="n">
         <v>2016</v>
       </c>
@@ -3670,24 +4386,28 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192"/>
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
       <c r="C192" t="n">
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>15.0151000413</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>50788.30755</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193"/>
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
@@ -3700,54 +4420,62 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>101</v>
-      </c>
-      <c r="B194"/>
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
       <c r="C194" t="n">
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>0.1032481952</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>349.235175</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>101</v>
-      </c>
-      <c r="B195"/>
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
       <c r="C195" t="n">
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>0.0944375674</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>349.235175</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196"/>
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
       <c r="C196" t="n">
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>2.9593896935</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>10010.08275</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197"/>
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
       <c r="C197" t="n">
         <v>2016</v>
       </c>
@@ -3760,9 +4488,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>103</v>
-      </c>
-      <c r="B198"/>
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
       <c r="C198" t="n">
         <v>2015</v>
       </c>
@@ -3775,9 +4505,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>103</v>
-      </c>
-      <c r="B199"/>
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
       <c r="C199" t="n">
         <v>2016</v>
       </c>
@@ -3790,9 +4522,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200"/>
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
       <c r="C200" t="n">
         <v>2015</v>
       </c>
@@ -3805,9 +4539,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201"/>
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
       <c r="C201" t="n">
         <v>2016</v>
       </c>
@@ -3820,69 +4556,79 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>105</v>
-      </c>
-      <c r="B202"/>
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
       <c r="C202" t="n">
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5951487211</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>2013.079913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203"/>
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
       <c r="C203" t="n">
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>0.544362033</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>2013.079913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204"/>
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
       <c r="C204" t="n">
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>1.0787286818</v>
+        <v>0.0592143945</v>
       </c>
       <c r="E204" t="n">
-        <v>3648.780488</v>
+        <v>200.2916312</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205"/>
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
       <c r="C205" t="n">
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>0.2554556047</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>944.688489</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206"/>
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
       <c r="C206" t="n">
         <v>2015</v>
       </c>
@@ -3895,9 +4641,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B207"/>
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
       <c r="C207" t="n">
         <v>2016</v>
       </c>
@@ -3910,9 +4658,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>108</v>
-      </c>
-      <c r="B208"/>
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
       <c r="C208" t="n">
         <v>2015</v>
       </c>
@@ -3925,9 +4675,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>108</v>
-      </c>
-      <c r="B209"/>
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
       <c r="C209" t="n">
         <v>2016</v>
       </c>
@@ -3940,39 +4692,45 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>109</v>
-      </c>
-      <c r="B210"/>
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
       <c r="C210" t="n">
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>0.2175155214</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>735.742364</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>109</v>
-      </c>
-      <c r="B211"/>
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
       <c r="C211" t="n">
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>0.1989539543</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>735.742364</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212"/>
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
       <c r="C212" t="n">
         <v>2015</v>
       </c>
@@ -3985,9 +4743,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213"/>
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
       <c r="C213" t="n">
         <v>2016</v>
       </c>
@@ -4000,9 +4760,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214"/>
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
       <c r="C214" t="n">
         <v>2015</v>
       </c>
@@ -4015,9 +4777,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
-      </c>
-      <c r="B215"/>
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
       <c r="C215" t="n">
         <v>2016</v>
       </c>
@@ -4030,9 +4794,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216"/>
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
       <c r="C216" t="n">
         <v>2015</v>
       </c>
@@ -4045,24 +4811,28 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>112</v>
-      </c>
-      <c r="B217"/>
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
       <c r="C217" t="n">
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>1.4846860458</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>5490.448405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>113</v>
-      </c>
-      <c r="B218"/>
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
       <c r="C218" t="n">
         <v>2015</v>
       </c>
@@ -4075,9 +4845,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>113</v>
-      </c>
-      <c r="B219"/>
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
       <c r="C219" t="n">
         <v>2016</v>
       </c>
@@ -4090,9 +4862,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>114</v>
-      </c>
-      <c r="B220"/>
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
       <c r="C220" t="n">
         <v>2015</v>
       </c>
@@ -4105,9 +4879,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>114</v>
-      </c>
-      <c r="B221"/>
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
       <c r="C221" t="n">
         <v>2016</v>
       </c>
@@ -4120,62 +4896,70 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>115</v>
-      </c>
-      <c r="B222"/>
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
       <c r="C222" t="n">
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0592143945</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>200.2916312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>115</v>
-      </c>
-      <c r="B223"/>
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
       <c r="C223" t="n">
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2554556047</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>944.688489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224"/>
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
       <c r="C224" t="n">
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>0.2175155214</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>735.742364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>116</v>
-      </c>
-      <c r="B225"/>
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
       <c r="C225" t="n">
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1989539543</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>735.742364</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4197,1218 +4981,1557 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>15.7418685936</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>10.980880331</v>
+        <v>3.6888562941</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7502706017</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0952466374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2524575881</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9"/>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.6500135343</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1732321545</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1584494841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1681450385</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="n">
+        <v>1.0787286818</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.7218076629</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3352358372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1166004051</v>
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26"/>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>8.2634232013</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.4635292565</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0005345693</v>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0004889521</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="n">
+        <v>0.8583023293</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15.7418685936</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.980880331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1681450385</v>
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1166004051</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
       </c>
       <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0391382014</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
       </c>
       <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
       </c>
       <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
       </c>
       <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.0374877426</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0342887468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7502706017</v>
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.1732321545</v>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1584494841</v>
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.0108745741</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
       </c>
       <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" t="n">
-        <v>8.2634232013</v>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>2.4635292565</v>
+        <v>2.1087819018</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.5103500976</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
       </c>
       <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2.1087819018</v>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>3.5103500976</v>
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5305540697</v>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4852795306</v>
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.4846860458</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.5951487211</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.544362033</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
       </c>
       <c r="C67" t="n">
+        <v>10.9490265287</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.5305540697</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4852795306</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" t="n">
-        <v>3.6888562941</v>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" t="n">
-        <v>10.6500135343</v>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
       </c>
       <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0074996888</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.2524575881</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0108745741</v>
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0074996888</v>
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.9593896935</v>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.0005345693</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0004889521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0952466374</v>
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
       </c>
       <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="n">
-        <v>10.9490265287</v>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.8201766689</v>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n">
-        <v>15.0151000413</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.1032481952</v>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0944375674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
       </c>
       <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.7218076629</v>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3352358372</v>
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
       </c>
       <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
       </c>
       <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
       </c>
       <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.8583023293</v>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
       </c>
       <c r="C92" t="n">
+        <v>0.8201766689</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0391382014</v>
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
       </c>
       <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.0374877426</v>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0342887468</v>
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
       </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
       </c>
       <c r="C97" t="n">
+        <v>15.0151000413</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.1032481952</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0944375674</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
       </c>
       <c r="C99" t="n">
+        <v>2.9593896935</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
       </c>
       <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5951487211</v>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>0.544362033</v>
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.0787286818</v>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.0592143945</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.2554556047</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
       </c>
       <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
       </c>
       <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.2175155214</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.1989539543</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
       </c>
       <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
       </c>
       <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>1.4846860458</v>
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
       </c>
       <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
       </c>
       <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.0592143945</v>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2554556047</v>
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.2175155214</v>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1989539543</v>
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+  <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">value-ncu</t>
+    <t xml:space="preserve">value_ncu</t>
   </si>
   <si>
     <t xml:space="preserve">d314</t>
@@ -649,6 +649,12 @@
     <t xml:space="preserve">Rukungiri</t>
   </si>
   <si>
+    <t xml:space="preserve">d111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
@@ -673,12 +679,6 @@
     <t xml:space="preserve">Soroti</t>
   </si>
   <si>
-    <t xml:space="preserve">d111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ssembabule</t>
-  </si>
-  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
@@ -712,13 +712,16 @@
     <t xml:space="preserve">Name: uganda-donor-educ-spend</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Primary education donor spending per child.</t>
+    <t xml:space="preserve">Description: On-budget donor funded expenditure allocations per child in government primary education, by district.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Local government budgets, Ministry of Finance, Planning and Economic Development.</t>
+    <t xml:space="preserve">Source: 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -727,28 +730,22 @@
     <t xml:space="preserve">This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1101,74 +1098,68 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1204,7 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>3.6888562941</v>
+        <v>4.419596169</v>
       </c>
       <c r="E2" t="n">
         <v>12477.49049</v>
@@ -1229,12 +1220,8 @@
       <c r="C3" t="n">
         <v>2016</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1246,12 +1233,8 @@
       <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1264,7 +1247,7 @@
         <v>2016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7502706017</v>
+        <v>0.749651275</v>
       </c>
       <c r="E5" t="n">
         <v>2774.540813</v>
@@ -1280,12 +1263,8 @@
       <c r="C6" t="n">
         <v>2015</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1298,7 +1277,7 @@
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0952466374</v>
+        <v>0.095168014</v>
       </c>
       <c r="E7" t="n">
         <v>352.2271594</v>
@@ -1314,12 +1293,8 @@
       <c r="C8" t="n">
         <v>2015</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8"/>
+      <c r="E8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1331,12 +1306,8 @@
       <c r="C9" t="n">
         <v>2016</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9"/>
+      <c r="E9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1348,12 +1319,8 @@
       <c r="C10" t="n">
         <v>2015</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D10"/>
+      <c r="E10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1365,12 +1332,8 @@
       <c r="C11" t="n">
         <v>2016</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1382,12 +1345,8 @@
       <c r="C12" t="n">
         <v>2015</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
+      <c r="D12"/>
+      <c r="E12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1399,12 +1358,8 @@
       <c r="C13" t="n">
         <v>2016</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1416,12 +1371,8 @@
       <c r="C14" t="n">
         <v>2015</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1433,12 +1384,8 @@
       <c r="C15" t="n">
         <v>2016</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
+      <c r="D15"/>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1451,7 +1398,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>10.6500135343</v>
+        <v>12.75971609</v>
       </c>
       <c r="E16" t="n">
         <v>36023.48045</v>
@@ -1467,12 +1414,8 @@
       <c r="C17" t="n">
         <v>2016</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1485,7 +1428,7 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1732321545</v>
+        <v>0.207548385</v>
       </c>
       <c r="E18" t="n">
         <v>585.9546666</v>
@@ -1502,7 +1445,7 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1584494841</v>
+        <v>0.158318688</v>
       </c>
       <c r="E19" t="n">
         <v>585.9546666</v>
@@ -1518,12 +1461,8 @@
       <c r="C20" t="n">
         <v>2015</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1535,12 +1474,8 @@
       <c r="C21" t="n">
         <v>2016</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1552,12 +1487,8 @@
       <c r="C22" t="n">
         <v>2015</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
+      <c r="D22"/>
+      <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1570,7 +1501,7 @@
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1681450385</v>
+        <v>0.16800624</v>
       </c>
       <c r="E23" t="n">
         <v>621.8093456</v>
@@ -1586,12 +1517,8 @@
       <c r="C24" t="n">
         <v>2015</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1603,12 +1530,8 @@
       <c r="C25" t="n">
         <v>2016</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1620,12 +1543,8 @@
       <c r="C26" t="n">
         <v>2015</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
+      <c r="D26"/>
+      <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1650,12 +1569,8 @@
       <c r="C28" t="n">
         <v>2015</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
+      <c r="D28"/>
+      <c r="E28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1667,12 +1582,8 @@
       <c r="C29" t="n">
         <v>2016</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D29"/>
+      <c r="E29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1684,12 +1595,8 @@
       <c r="C30" t="n">
         <v>2015</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
+      <c r="D30"/>
+      <c r="E30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1701,12 +1608,8 @@
       <c r="C31" t="n">
         <v>2016</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D31"/>
+      <c r="E31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1718,12 +1621,8 @@
       <c r="C32" t="n">
         <v>2015</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
+      <c r="D32"/>
+      <c r="E32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1735,12 +1634,8 @@
       <c r="C33" t="n">
         <v>2016</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
+      <c r="D33"/>
+      <c r="E33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1752,12 +1647,8 @@
       <c r="C34" t="n">
         <v>2015</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
+      <c r="D34"/>
+      <c r="E34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1769,12 +1660,8 @@
       <c r="C35" t="n">
         <v>2016</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
+      <c r="D35"/>
+      <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1786,12 +1673,8 @@
       <c r="C36" t="n">
         <v>2015</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
+      <c r="D36"/>
+      <c r="E36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1803,12 +1686,8 @@
       <c r="C37" t="n">
         <v>2016</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
+      <c r="D37"/>
+      <c r="E37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1820,12 +1699,8 @@
       <c r="C38" t="n">
         <v>2015</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
+      <c r="D38"/>
+      <c r="E38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1837,12 +1712,8 @@
       <c r="C39" t="n">
         <v>2016</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
+      <c r="D39"/>
+      <c r="E39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1855,7 +1726,7 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0787286818</v>
+        <v>1.292418237</v>
       </c>
       <c r="E40" t="n">
         <v>3648.780488</v>
@@ -1871,12 +1742,8 @@
       <c r="C41" t="n">
         <v>2016</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
+      <c r="D41"/>
+      <c r="E41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1889,7 +1756,7 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7218076629</v>
+        <v>0.864793347</v>
       </c>
       <c r="E42" t="n">
         <v>2441.50152</v>
@@ -1906,7 +1773,7 @@
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3352358372</v>
+        <v>0.33495911</v>
       </c>
       <c r="E43" t="n">
         <v>1239.720056</v>
@@ -1922,12 +1789,8 @@
       <c r="C44" t="n">
         <v>2015</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
+      <c r="D44"/>
+      <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1939,12 +1802,8 @@
       <c r="C45" t="n">
         <v>2016</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
+      <c r="D45"/>
+      <c r="E45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1956,12 +1815,8 @@
       <c r="C46" t="n">
         <v>2015</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
+      <c r="D46"/>
+      <c r="E46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1973,12 +1828,8 @@
       <c r="C47" t="n">
         <v>2016</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
+      <c r="D47"/>
+      <c r="E47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1990,12 +1841,8 @@
       <c r="C48" t="n">
         <v>2015</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
+      <c r="D48"/>
+      <c r="E48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -2007,12 +1854,8 @@
       <c r="C49" t="n">
         <v>2016</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
+      <c r="D49"/>
+      <c r="E49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -2024,12 +1867,8 @@
       <c r="C50" t="n">
         <v>2015</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
+      <c r="D50"/>
+      <c r="E50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -2041,12 +1880,8 @@
       <c r="C51" t="n">
         <v>2016</v>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
+      <c r="D51"/>
+      <c r="E51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -2058,12 +1893,8 @@
       <c r="C52" t="n">
         <v>2015</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
+      <c r="D52"/>
+      <c r="E52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -2075,12 +1906,8 @@
       <c r="C53" t="n">
         <v>2016</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -2092,12 +1919,8 @@
       <c r="C54" t="n">
         <v>2015</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
+      <c r="D54"/>
+      <c r="E54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2109,12 +1932,8 @@
       <c r="C55" t="n">
         <v>2016</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
+      <c r="D55"/>
+      <c r="E55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -2126,12 +1945,8 @@
       <c r="C56" t="n">
         <v>2015</v>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
+      <c r="D56"/>
+      <c r="E56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -2143,12 +1958,8 @@
       <c r="C57" t="n">
         <v>2016</v>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
+      <c r="D57"/>
+      <c r="E57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -2160,12 +1971,8 @@
       <c r="C58" t="n">
         <v>2015</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
+      <c r="D58"/>
+      <c r="E58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -2177,12 +1984,8 @@
       <c r="C59" t="n">
         <v>2016</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
+      <c r="D59"/>
+      <c r="E59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -2195,7 +1998,7 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>8.2634232013</v>
+        <v>9.900356808</v>
       </c>
       <c r="E60" t="n">
         <v>27950.8813</v>
@@ -2212,7 +2015,7 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>2.4635292565</v>
+        <v>2.461495683</v>
       </c>
       <c r="E61" t="n">
         <v>9110.262951</v>
@@ -2228,12 +2031,8 @@
       <c r="C62" t="n">
         <v>2015</v>
       </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
+      <c r="D62"/>
+      <c r="E62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -2245,12 +2044,8 @@
       <c r="C63" t="n">
         <v>2016</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
+      <c r="D63"/>
+      <c r="E63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -2262,12 +2057,8 @@
       <c r="C64" t="n">
         <v>2015</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64"/>
+      <c r="E64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -2279,12 +2070,8 @@
       <c r="C65" t="n">
         <v>2016</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65"/>
+      <c r="E65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -2296,12 +2083,8 @@
       <c r="C66" t="n">
         <v>2015</v>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
+      <c r="D66"/>
+      <c r="E66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -2313,12 +2096,8 @@
       <c r="C67" t="n">
         <v>2016</v>
       </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
+      <c r="D67"/>
+      <c r="E67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -2330,12 +2109,8 @@
       <c r="C68" t="n">
         <v>2015</v>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
+      <c r="D68"/>
+      <c r="E68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -2347,12 +2122,8 @@
       <c r="C69" t="n">
         <v>2016</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69"/>
+      <c r="E69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -2364,12 +2135,8 @@
       <c r="C70" t="n">
         <v>2015</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
+      <c r="D70"/>
+      <c r="E70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -2381,12 +2148,8 @@
       <c r="C71" t="n">
         <v>2016</v>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
+      <c r="D71"/>
+      <c r="E71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -2398,12 +2161,8 @@
       <c r="C72" t="n">
         <v>2015</v>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
+      <c r="D72"/>
+      <c r="E72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -2415,12 +2174,8 @@
       <c r="C73" t="n">
         <v>2016</v>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
+      <c r="D73"/>
+      <c r="E73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -2432,12 +2187,8 @@
       <c r="C74" t="n">
         <v>2015</v>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
+      <c r="D74"/>
+      <c r="E74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -2449,12 +2200,8 @@
       <c r="C75" t="n">
         <v>2016</v>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
+      <c r="D75"/>
+      <c r="E75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -2467,7 +2214,7 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8583023293</v>
+        <v>1.028326772</v>
       </c>
       <c r="E76" t="n">
         <v>2903.19229</v>
@@ -2483,12 +2230,8 @@
       <c r="C77" t="n">
         <v>2016</v>
       </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
+      <c r="D77"/>
+      <c r="E77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -2500,12 +2243,8 @@
       <c r="C78" t="n">
         <v>2015</v>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
+      <c r="D78"/>
+      <c r="E78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -2517,12 +2256,8 @@
       <c r="C79" t="n">
         <v>2016</v>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
+      <c r="D79"/>
+      <c r="E79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -2535,7 +2270,7 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>15.7418685936</v>
+        <v>18.8602365</v>
       </c>
       <c r="E80" t="n">
         <v>53246.58919</v>
@@ -2552,7 +2287,7 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>10.980880331</v>
+        <v>10.97181593</v>
       </c>
       <c r="E81" t="n">
         <v>40607.88277</v>
@@ -2568,12 +2303,8 @@
       <c r="C82" t="n">
         <v>2015</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
+      <c r="D82"/>
+      <c r="E82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -2585,12 +2316,8 @@
       <c r="C83" t="n">
         <v>2016</v>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
+      <c r="D83"/>
+      <c r="E83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -2602,12 +2329,8 @@
       <c r="C84" t="n">
         <v>2015</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
+      <c r="D84"/>
+      <c r="E84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -2620,7 +2343,7 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1166004051</v>
+        <v>0.116504155</v>
       </c>
       <c r="E85" t="n">
         <v>431.1945342</v>
@@ -2662,12 +2385,8 @@
       <c r="C88" t="n">
         <v>2015</v>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
+      <c r="D88"/>
+      <c r="E88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -2679,12 +2398,8 @@
       <c r="C89" t="n">
         <v>2016</v>
       </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
+      <c r="D89"/>
+      <c r="E89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -2696,12 +2411,8 @@
       <c r="C90" t="n">
         <v>2015</v>
       </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
+      <c r="D90"/>
+      <c r="E90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -2713,12 +2424,8 @@
       <c r="C91" t="n">
         <v>2016</v>
       </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
+      <c r="D91"/>
+      <c r="E91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -2730,12 +2437,8 @@
       <c r="C92" t="n">
         <v>2015</v>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
+      <c r="D92"/>
+      <c r="E92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -2747,12 +2450,8 @@
       <c r="C93" t="n">
         <v>2016</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
+      <c r="D93"/>
+      <c r="E93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -2764,12 +2463,8 @@
       <c r="C94" t="n">
         <v>2015</v>
       </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
+      <c r="D94"/>
+      <c r="E94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -2781,12 +2476,8 @@
       <c r="C95" t="n">
         <v>2016</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
+      <c r="D95"/>
+      <c r="E95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2798,12 +2489,8 @@
       <c r="C96" t="n">
         <v>2015</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
+      <c r="D96"/>
+      <c r="E96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2816,7 +2503,7 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0391382014</v>
+        <v>0.039105894</v>
       </c>
       <c r="E97" t="n">
         <v>144.7351619</v>
@@ -2832,12 +2519,8 @@
       <c r="C98" t="n">
         <v>2015</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
+      <c r="D98"/>
+      <c r="E98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2849,12 +2532,8 @@
       <c r="C99" t="n">
         <v>2016</v>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
+      <c r="D99"/>
+      <c r="E99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -2866,12 +2545,8 @@
       <c r="C100" t="n">
         <v>2015</v>
       </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
+      <c r="D100"/>
+      <c r="E100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -2883,12 +2558,8 @@
       <c r="C101" t="n">
         <v>2016</v>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
+      <c r="D101"/>
+      <c r="E101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -2900,12 +2571,8 @@
       <c r="C102" t="n">
         <v>2015</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
+      <c r="D102"/>
+      <c r="E102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -2917,12 +2584,8 @@
       <c r="C103" t="n">
         <v>2016</v>
       </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
+      <c r="D103"/>
+      <c r="E103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2934,12 +2597,8 @@
       <c r="C104" t="n">
         <v>2015</v>
       </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
+      <c r="D104"/>
+      <c r="E104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2951,12 +2610,8 @@
       <c r="C105" t="n">
         <v>2016</v>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
+      <c r="D105"/>
+      <c r="E105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -2968,12 +2623,8 @@
       <c r="C106" t="n">
         <v>2015</v>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
+      <c r="D106"/>
+      <c r="E106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2985,12 +2636,8 @@
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
+      <c r="D107"/>
+      <c r="E107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -3002,12 +2649,8 @@
       <c r="C108" t="n">
         <v>2015</v>
       </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
+      <c r="D108"/>
+      <c r="E108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -3019,12 +2662,8 @@
       <c r="C109" t="n">
         <v>2016</v>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
+      <c r="D109"/>
+      <c r="E109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -3036,12 +2675,8 @@
       <c r="C110" t="n">
         <v>2015</v>
       </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
+      <c r="D110"/>
+      <c r="E110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -3053,12 +2688,8 @@
       <c r="C111" t="n">
         <v>2016</v>
       </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
+      <c r="D111"/>
+      <c r="E111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -3071,7 +2702,7 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0374877426</v>
+        <v>0.044913835</v>
       </c>
       <c r="E112" t="n">
         <v>126.8016194</v>
@@ -3088,7 +2719,7 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0342887468</v>
+        <v>0.034260442</v>
       </c>
       <c r="E113" t="n">
         <v>126.8016194</v>
@@ -3104,12 +2735,8 @@
       <c r="C114" t="n">
         <v>2015</v>
       </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
+      <c r="D114"/>
+      <c r="E114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -3121,12 +2748,8 @@
       <c r="C115" t="n">
         <v>2016</v>
       </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
+      <c r="D115"/>
+      <c r="E115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -3138,12 +2761,8 @@
       <c r="C116" t="n">
         <v>2015</v>
       </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
+      <c r="D116"/>
+      <c r="E116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -3156,7 +2775,7 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0108745741</v>
+        <v>1.010040126</v>
       </c>
       <c r="E117" t="n">
         <v>3738.268241</v>
@@ -3172,12 +2791,8 @@
       <c r="C118" t="n">
         <v>2015</v>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
+      <c r="D118"/>
+      <c r="E118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -3189,12 +2804,8 @@
       <c r="C119" t="n">
         <v>2016</v>
       </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
+      <c r="D119"/>
+      <c r="E119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -3207,7 +2818,7 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>2.1087819018</v>
+        <v>2.526518702</v>
       </c>
       <c r="E120" t="n">
         <v>7132.917096</v>
@@ -3224,7 +2835,7 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>3.5103500976</v>
+        <v>3.507452403</v>
       </c>
       <c r="E121" t="n">
         <v>12981.46241</v>
@@ -3240,12 +2851,8 @@
       <c r="C122" t="n">
         <v>2015</v>
       </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
+      <c r="D122"/>
+      <c r="E122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -3257,12 +2864,8 @@
       <c r="C123" t="n">
         <v>2016</v>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
+      <c r="D123"/>
+      <c r="E123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -3274,12 +2877,8 @@
       <c r="C124" t="n">
         <v>2015</v>
       </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
+      <c r="D124"/>
+      <c r="E124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -3291,12 +2890,8 @@
       <c r="C125" t="n">
         <v>2016</v>
       </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
+      <c r="D125"/>
+      <c r="E125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -3308,12 +2903,8 @@
       <c r="C126" t="n">
         <v>2015</v>
       </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
+      <c r="D126"/>
+      <c r="E126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -3325,12 +2916,8 @@
       <c r="C127" t="n">
         <v>2016</v>
       </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
+      <c r="D127"/>
+      <c r="E127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -3342,12 +2929,8 @@
       <c r="C128" t="n">
         <v>2015</v>
       </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
+      <c r="D128"/>
+      <c r="E128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -3360,7 +2943,7 @@
         <v>2016</v>
       </c>
       <c r="D129" t="n">
-        <v>1.4846860458</v>
+        <v>1.48346048</v>
       </c>
       <c r="E129" t="n">
         <v>5490.448405</v>
@@ -3377,7 +2960,7 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5951487211</v>
+        <v>0.713044044</v>
       </c>
       <c r="E130" t="n">
         <v>2013.079913</v>
@@ -3394,7 +2977,7 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>0.544362033</v>
+        <v>0.543912678</v>
       </c>
       <c r="E131" t="n">
         <v>2013.079913</v>
@@ -3411,7 +2994,7 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>10.9490265287</v>
+        <v>13.11796173</v>
       </c>
       <c r="E132" t="n">
         <v>37034.88656</v>
@@ -3427,12 +3010,8 @@
       <c r="C133" t="n">
         <v>2016</v>
       </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
+      <c r="D133"/>
+      <c r="E133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -3445,7 +3024,7 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5305540697</v>
+        <v>0.635653587</v>
       </c>
       <c r="E134" t="n">
         <v>1794.589659</v>
@@ -3462,7 +3041,7 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4852795306</v>
+        <v>0.484878946</v>
       </c>
       <c r="E135" t="n">
         <v>1794.589659</v>
@@ -3504,12 +3083,8 @@
       <c r="C138" t="n">
         <v>2015</v>
       </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
+      <c r="D138"/>
+      <c r="E138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -3521,12 +3096,8 @@
       <c r="C139" t="n">
         <v>2016</v>
       </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
+      <c r="D139"/>
+      <c r="E139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -3538,12 +3109,8 @@
       <c r="C140" t="n">
         <v>2015</v>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
+      <c r="D140"/>
+      <c r="E140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -3555,12 +3122,8 @@
       <c r="C141" t="n">
         <v>2016</v>
       </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
+      <c r="D141"/>
+      <c r="E141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -3572,12 +3135,8 @@
       <c r="C142" t="n">
         <v>2015</v>
       </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
+      <c r="D142"/>
+      <c r="E142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -3589,12 +3148,8 @@
       <c r="C143" t="n">
         <v>2016</v>
       </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
+      <c r="D143"/>
+      <c r="E143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -3606,12 +3161,8 @@
       <c r="C144" t="n">
         <v>2015</v>
       </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0</v>
-      </c>
+      <c r="D144"/>
+      <c r="E144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -3623,12 +3174,8 @@
       <c r="C145" t="n">
         <v>2016</v>
       </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
+      <c r="D145"/>
+      <c r="E145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -3640,12 +3187,8 @@
       <c r="C146" t="n">
         <v>2015</v>
       </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0</v>
-      </c>
+      <c r="D146"/>
+      <c r="E146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -3658,7 +3201,7 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0074996888</v>
+        <v>0.007493498</v>
       </c>
       <c r="E147" t="n">
         <v>27.73425041</v>
@@ -3674,12 +3217,8 @@
       <c r="C148" t="n">
         <v>2015</v>
       </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
+      <c r="D148"/>
+      <c r="E148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -3692,7 +3231,7 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2524575881</v>
+        <v>0.252249192</v>
       </c>
       <c r="E149" t="n">
         <v>933.6016633</v>
@@ -3708,12 +3247,8 @@
       <c r="C150" t="n">
         <v>2015</v>
       </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
+      <c r="D150"/>
+      <c r="E150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -3725,12 +3260,8 @@
       <c r="C151" t="n">
         <v>2016</v>
       </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
+      <c r="D151"/>
+      <c r="E151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -3742,12 +3273,8 @@
       <c r="C152" t="n">
         <v>2015</v>
       </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
+      <c r="D152"/>
+      <c r="E152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -3759,12 +3286,8 @@
       <c r="C153" t="n">
         <v>2016</v>
       </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
+      <c r="D153"/>
+      <c r="E153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -3777,7 +3300,7 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0005345693</v>
+        <v>0.000640464</v>
       </c>
       <c r="E154" t="n">
         <v>1.808171125</v>
@@ -3794,7 +3317,7 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0004889521</v>
+        <v>0.000488549</v>
       </c>
       <c r="E155" t="n">
         <v>1.808171125</v>
@@ -3810,12 +3333,8 @@
       <c r="C156" t="n">
         <v>2015</v>
       </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
+      <c r="D156"/>
+      <c r="E156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -3827,12 +3346,8 @@
       <c r="C157" t="n">
         <v>2016</v>
       </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
+      <c r="D157"/>
+      <c r="E157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -3844,12 +3359,8 @@
       <c r="C158" t="n">
         <v>2015</v>
       </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
+      <c r="D158"/>
+      <c r="E158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -3861,12 +3372,8 @@
       <c r="C159" t="n">
         <v>2016</v>
       </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
+      <c r="D159"/>
+      <c r="E159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -3930,12 +3437,8 @@
       <c r="C164" t="n">
         <v>2015</v>
       </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
+      <c r="D164"/>
+      <c r="E164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -3947,12 +3450,8 @@
       <c r="C165" t="n">
         <v>2016</v>
       </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
+      <c r="D165"/>
+      <c r="E165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -3964,12 +3463,8 @@
       <c r="C166" t="n">
         <v>2015</v>
       </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
+      <c r="D166"/>
+      <c r="E166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -3981,12 +3476,8 @@
       <c r="C167" t="n">
         <v>2016</v>
       </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
+      <c r="D167"/>
+      <c r="E167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -4024,12 +3515,8 @@
       <c r="C170" t="n">
         <v>2015</v>
       </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
+      <c r="D170"/>
+      <c r="E170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -4054,12 +3541,8 @@
       <c r="C172" t="n">
         <v>2015</v>
       </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
+      <c r="D172"/>
+      <c r="E172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -4071,12 +3554,8 @@
       <c r="C173" t="n">
         <v>2016</v>
       </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
+      <c r="D173"/>
+      <c r="E173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -4088,12 +3567,8 @@
       <c r="C174" t="n">
         <v>2015</v>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
+      <c r="D174"/>
+      <c r="E174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -4105,12 +3580,8 @@
       <c r="C175" t="n">
         <v>2016</v>
       </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
+      <c r="D175"/>
+      <c r="E175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -4122,12 +3593,8 @@
       <c r="C176" t="n">
         <v>2015</v>
       </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
+      <c r="D176"/>
+      <c r="E176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -4139,12 +3606,8 @@
       <c r="C177" t="n">
         <v>2016</v>
       </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
+      <c r="D177"/>
+      <c r="E177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -4156,12 +3619,8 @@
       <c r="C178" t="n">
         <v>2015</v>
       </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
+      <c r="D178"/>
+      <c r="E178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -4173,12 +3632,8 @@
       <c r="C179" t="n">
         <v>2016</v>
       </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
+      <c r="D179"/>
+      <c r="E179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
@@ -4190,12 +3645,8 @@
       <c r="C180" t="n">
         <v>2015</v>
       </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
+      <c r="D180"/>
+      <c r="E180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -4207,12 +3658,8 @@
       <c r="C181" t="n">
         <v>2016</v>
       </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
+      <c r="D181"/>
+      <c r="E181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -4225,7 +3672,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8201766689</v>
+        <v>0.982648652</v>
       </c>
       <c r="E182" t="n">
         <v>2774.232925</v>
@@ -4241,12 +3688,8 @@
       <c r="C183" t="n">
         <v>2016</v>
       </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
+      <c r="D183"/>
+      <c r="E183"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
@@ -4258,12 +3701,8 @@
       <c r="C184" t="n">
         <v>2015</v>
       </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
+      <c r="D184"/>
+      <c r="E184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
@@ -4275,12 +3714,8 @@
       <c r="C185" t="n">
         <v>2016</v>
       </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
+      <c r="D185"/>
+      <c r="E185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
@@ -4292,12 +3727,8 @@
       <c r="C186" t="n">
         <v>2015</v>
       </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
+      <c r="D186"/>
+      <c r="E186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -4309,12 +3740,8 @@
       <c r="C187" t="n">
         <v>2016</v>
       </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
+      <c r="D187"/>
+      <c r="E187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
@@ -4326,12 +3753,8 @@
       <c r="C188" t="n">
         <v>2015</v>
       </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
+      <c r="D188"/>
+      <c r="E188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
@@ -4343,12 +3766,8 @@
       <c r="C189" t="n">
         <v>2016</v>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
+      <c r="D189"/>
+      <c r="E189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
@@ -4360,12 +3779,8 @@
       <c r="C190" t="n">
         <v>2015</v>
       </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
+      <c r="D190"/>
+      <c r="E190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -4377,12 +3792,8 @@
       <c r="C191" t="n">
         <v>2016</v>
       </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
+      <c r="D191"/>
+      <c r="E191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
@@ -4395,7 +3806,7 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>15.0151000413</v>
+        <v>17.98949954</v>
       </c>
       <c r="E192" t="n">
         <v>50788.30755</v>
@@ -4411,12 +3822,8 @@
       <c r="C193" t="n">
         <v>2016</v>
       </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
+      <c r="D193"/>
+      <c r="E193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
@@ -4429,7 +3836,7 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1032481952</v>
+        <v>0.123701031</v>
       </c>
       <c r="E194" t="n">
         <v>349.235175</v>
@@ -4446,7 +3853,7 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0944375674</v>
+        <v>0.094359612</v>
       </c>
       <c r="E195" t="n">
         <v>349.235175</v>
@@ -4463,7 +3870,7 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>2.9593896935</v>
+        <v>3.545626696</v>
       </c>
       <c r="E196" t="n">
         <v>10010.08275</v>
@@ -4479,12 +3886,8 @@
       <c r="C197" t="n">
         <v>2016</v>
       </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
+      <c r="D197"/>
+      <c r="E197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
@@ -4496,12 +3899,8 @@
       <c r="C198" t="n">
         <v>2015</v>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
+      <c r="D198"/>
+      <c r="E198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
@@ -4513,12 +3912,8 @@
       <c r="C199" t="n">
         <v>2016</v>
       </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
+      <c r="D199"/>
+      <c r="E199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
@@ -4530,12 +3925,8 @@
       <c r="C200" t="n">
         <v>2015</v>
       </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
+      <c r="D200"/>
+      <c r="E200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
@@ -4547,12 +3938,8 @@
       <c r="C201" t="n">
         <v>2016</v>
       </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
+      <c r="D201"/>
+      <c r="E201"/>
     </row>
     <row r="202">
       <c r="A202" t="s">
@@ -4564,12 +3951,8 @@
       <c r="C202" t="n">
         <v>2015</v>
       </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
+      <c r="D202"/>
+      <c r="E202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -4581,12 +3964,8 @@
       <c r="C203" t="n">
         <v>2016</v>
       </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
+      <c r="D203"/>
+      <c r="E203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -4599,7 +3978,7 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0592143945</v>
+        <v>0.070944404</v>
       </c>
       <c r="E204" t="n">
         <v>200.2916312</v>
@@ -4616,7 +3995,7 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2554556047</v>
+        <v>0.255244733</v>
       </c>
       <c r="E205" t="n">
         <v>944.688489</v>
@@ -4632,12 +4011,8 @@
       <c r="C206" t="n">
         <v>2015</v>
       </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
+      <c r="D206"/>
+      <c r="E206"/>
     </row>
     <row r="207">
       <c r="A207" t="s">
@@ -4649,12 +4024,8 @@
       <c r="C207" t="n">
         <v>2016</v>
       </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
+      <c r="D207"/>
+      <c r="E207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
@@ -4666,12 +4037,8 @@
       <c r="C208" t="n">
         <v>2015</v>
       </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0</v>
-      </c>
+      <c r="D208"/>
+      <c r="E208"/>
     </row>
     <row r="209">
       <c r="A209" t="s">
@@ -4683,12 +4050,8 @@
       <c r="C209" t="n">
         <v>2016</v>
       </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0</v>
-      </c>
+      <c r="D209"/>
+      <c r="E209"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
@@ -4700,12 +4063,8 @@
       <c r="C210" t="n">
         <v>2015</v>
       </c>
-      <c r="D210" t="n">
-        <v>0.2175155214</v>
-      </c>
-      <c r="E210" t="n">
-        <v>735.742364</v>
-      </c>
+      <c r="D210"/>
+      <c r="E210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -4717,12 +4076,8 @@
       <c r="C211" t="n">
         <v>2016</v>
       </c>
-      <c r="D211" t="n">
-        <v>0.1989539543</v>
-      </c>
-      <c r="E211" t="n">
-        <v>735.742364</v>
-      </c>
+      <c r="D211"/>
+      <c r="E211"/>
     </row>
     <row r="212">
       <c r="A212" t="s">
@@ -4735,10 +4090,10 @@
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>0.260604016</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>735.742364</v>
       </c>
     </row>
     <row r="213">
@@ -4752,10 +4107,10 @@
         <v>2016</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>0.198789723</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>735.742364</v>
       </c>
     </row>
     <row r="214">
@@ -4768,12 +4123,8 @@
       <c r="C214" t="n">
         <v>2015</v>
       </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
+      <c r="D214"/>
+      <c r="E214"/>
     </row>
     <row r="215">
       <c r="A215" t="s">
@@ -4785,12 +4136,8 @@
       <c r="C215" t="n">
         <v>2016</v>
       </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
+      <c r="D215"/>
+      <c r="E215"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
@@ -4802,12 +4149,8 @@
       <c r="C216" t="n">
         <v>2015</v>
       </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
+      <c r="D216"/>
+      <c r="E216"/>
     </row>
     <row r="217">
       <c r="A217" t="s">
@@ -4819,12 +4162,8 @@
       <c r="C217" t="n">
         <v>2016</v>
       </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
+      <c r="D217"/>
+      <c r="E217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
@@ -4836,12 +4175,8 @@
       <c r="C218" t="n">
         <v>2015</v>
       </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
+      <c r="D218"/>
+      <c r="E218"/>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -4853,12 +4188,8 @@
       <c r="C219" t="n">
         <v>2016</v>
       </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
+      <c r="D219"/>
+      <c r="E219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
@@ -4870,12 +4201,8 @@
       <c r="C220" t="n">
         <v>2015</v>
       </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
+      <c r="D220"/>
+      <c r="E220"/>
     </row>
     <row r="221">
       <c r="A221" t="s">
@@ -4887,12 +4214,8 @@
       <c r="C221" t="n">
         <v>2016</v>
       </c>
-      <c r="D221" t="n">
-        <v>0</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
+      <c r="D221"/>
+      <c r="E221"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
@@ -4904,12 +4227,8 @@
       <c r="C222" t="n">
         <v>2015</v>
       </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
+      <c r="D222"/>
+      <c r="E222"/>
     </row>
     <row r="223">
       <c r="A223" t="s">
@@ -4921,12 +4240,8 @@
       <c r="C223" t="n">
         <v>2016</v>
       </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
+      <c r="D223"/>
+      <c r="E223"/>
     </row>
     <row r="224">
       <c r="A224" t="s">
@@ -4938,12 +4253,8 @@
       <c r="C224" t="n">
         <v>2015</v>
       </c>
-      <c r="D224" t="n">
-        <v>0</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
+      <c r="D224"/>
+      <c r="E224"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
@@ -4955,12 +4266,8 @@
       <c r="C225" t="n">
         <v>2016</v>
       </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
+      <c r="D225"/>
+      <c r="E225"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4981,12 +4288,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4994,1545 +4298,867 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.6888562941</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="n">
+        <v>4.419596169</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7502706017</v>
+        <v>0.749651275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0952466374</v>
+        <v>0.095168014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6"/>
+      <c r="C6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10.6500135343</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="n">
+        <v>12.75971609</v>
+      </c>
+      <c r="C9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
+      <c r="B10" t="n">
+        <v>0.207548385</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1732321545</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1584494841</v>
+        <v>0.158318688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12"/>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1681450385</v>
+        <v>0.16800624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14"/>
+      <c r="B14"/>
+      <c r="C14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16"/>
+      <c r="C16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
+      <c r="B17"/>
+      <c r="C17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
+      <c r="B18"/>
+      <c r="C18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
+      <c r="B19"/>
+      <c r="C19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20"/>
+      <c r="C20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0787286818</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" t="n">
+        <v>1.292418237</v>
+      </c>
+      <c r="C21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="B22" t="n">
+        <v>0.864793347</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7218076629</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.3352358372</v>
+        <v>0.33495911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
+      <c r="B26"/>
+      <c r="C26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
+      <c r="B27"/>
+      <c r="C27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
+      <c r="B30"/>
+      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="B31" t="n">
+        <v>9.900356808</v>
       </c>
       <c r="C31" t="n">
-        <v>8.2634232013</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.4635292565</v>
+        <v>2.461495683</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
+      <c r="B33"/>
+      <c r="C33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
+      <c r="B34"/>
+      <c r="C34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35"/>
+      <c r="C35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
+      <c r="B36"/>
+      <c r="C36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
+      <c r="B37"/>
+      <c r="C37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
+      <c r="B38"/>
+      <c r="C38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.8583023293</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
+      <c r="B39" t="n">
+        <v>1.028326772</v>
+      </c>
+      <c r="C39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
+      <c r="B40"/>
+      <c r="C40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
+      <c r="B41" t="n">
+        <v>18.8602365</v>
       </c>
       <c r="C41" t="n">
-        <v>15.7418685936</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10.980880331</v>
+        <v>10.97181593</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
+      <c r="B42"/>
+      <c r="C42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
+      <c r="B43"/>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.1166004051</v>
+        <v>0.116504155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
+      <c r="B44"/>
       <c r="C44"/>
-      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45"/>
+      <c r="C45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46"/>
+      <c r="C46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47"/>
+      <c r="C47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48"/>
+      <c r="C48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
+      <c r="B49"/>
       <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0391382014</v>
+        <v>0.039105894</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50"/>
+      <c r="C50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51"/>
+      <c r="C51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52"/>
+      <c r="C52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53"/>
+      <c r="C53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54"/>
+      <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55"/>
+      <c r="C55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56"/>
+      <c r="C56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s">
-        <v>116</v>
+      <c r="B57" t="n">
+        <v>0.044913835</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0374877426</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.0342887468</v>
+        <v>0.034260442</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58"/>
+      <c r="C58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
+      <c r="B59"/>
       <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.0108745741</v>
+        <v>1.010040126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60"/>
+      <c r="C60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
-        <v>124</v>
+      <c r="B61" t="n">
+        <v>2.526518702</v>
       </c>
       <c r="C61" t="n">
-        <v>2.1087819018</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3.5103500976</v>
+        <v>3.507452403</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62"/>
+      <c r="C62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63"/>
+      <c r="C63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64"/>
+      <c r="C64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
+      <c r="B65"/>
       <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.4846860458</v>
+        <v>1.48346048</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="s">
-        <v>134</v>
+      <c r="B66" t="n">
+        <v>0.713044044</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5951487211</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.544362033</v>
+        <v>0.543912678</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="n">
-        <v>10.9490265287</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" t="n">
+        <v>13.11796173</v>
+      </c>
+      <c r="C67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="s">
-        <v>138</v>
+      <c r="B68" t="n">
+        <v>0.635653587</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5305540697</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.4852795306</v>
+        <v>0.484878946</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
+      <c r="B69"/>
       <c r="C69"/>
-      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70"/>
+      <c r="C70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71"/>
+      <c r="C71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72"/>
+      <c r="C72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73"/>
+      <c r="C73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s">
-        <v>150</v>
-      </c>
+      <c r="B74"/>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.0074996888</v>
+        <v>0.007493498</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
+      <c r="B75"/>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.2524575881</v>
+        <v>0.252249192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
+      <c r="B76"/>
+      <c r="C76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
+      <c r="B77"/>
+      <c r="C77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="s">
-        <v>158</v>
+      <c r="B78" t="n">
+        <v>0.000640464</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0005345693</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.0004889521</v>
+        <v>0.000488549</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79"/>
+      <c r="C79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
+      <c r="B80"/>
+      <c r="C80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="s">
-        <v>164</v>
-      </c>
+      <c r="B81"/>
       <c r="C81"/>
-      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="s">
-        <v>166</v>
-      </c>
+      <c r="B82"/>
       <c r="C82"/>
-      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
+      <c r="B83"/>
+      <c r="C83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
+      <c r="B84"/>
+      <c r="C84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
+      <c r="B85"/>
       <c r="C85"/>
-      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86"/>
+      <c r="B86"/>
+      <c r="C86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
+      <c r="B87"/>
+      <c r="C87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
+      <c r="B88"/>
+      <c r="C88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
+      <c r="B89"/>
+      <c r="C89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
+      <c r="B90"/>
+      <c r="C90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
+      <c r="B91"/>
+      <c r="C91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.8201766689</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
+      <c r="B92" t="n">
+        <v>0.982648652</v>
+      </c>
+      <c r="C92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
+      <c r="B93"/>
+      <c r="C93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
+      <c r="B94"/>
+      <c r="C94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
+      <c r="B95"/>
+      <c r="C95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
+      <c r="B96"/>
+      <c r="C96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" t="n">
-        <v>15.0151000413</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
+      <c r="B97" t="n">
+        <v>17.98949954</v>
+      </c>
+      <c r="C97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="s">
-        <v>198</v>
+      <c r="B98" t="n">
+        <v>0.123701031</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1032481952</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.0944375674</v>
+        <v>0.094359612</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.9593896935</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
+      <c r="B99" t="n">
+        <v>3.545626696</v>
+      </c>
+      <c r="C99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
+      <c r="B100"/>
+      <c r="C100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
+      <c r="B101"/>
+      <c r="C101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
+      <c r="B102"/>
+      <c r="C102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="s">
-        <v>208</v>
+      <c r="B103" t="n">
+        <v>0.070944404</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0592143945</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.2554556047</v>
+        <v>0.255244733</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
+      <c r="B104"/>
+      <c r="C104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>211</v>
       </c>
-      <c r="B105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
+      <c r="B105"/>
+      <c r="C105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.2175155214</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.1989539543</v>
-      </c>
+      <c r="B106"/>
+      <c r="C106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="s">
-        <v>216</v>
+      <c r="B107" t="n">
+        <v>0.260604016</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
+        <v>0.198789723</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
+      <c r="B108"/>
+      <c r="C108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
+      <c r="B109"/>
+      <c r="C109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
+      <c r="B110"/>
+      <c r="C110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>223</v>
       </c>
-      <c r="B111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
+      <c r="B111"/>
+      <c r="C111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
+      <c r="B112"/>
+      <c r="C112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
+      <c r="B113"/>
+      <c r="C113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
+++ b/user-data/uganda-donor-educ-spend/uganda-donor-educ-spend.xlsx
@@ -718,7 +718,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
